--- a/NMMakerFnFEvent_BOM.xlsx
+++ b/NMMakerFnFEvent_BOM.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18432" windowHeight="7380"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13728" windowHeight="7380" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AR List" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="197">
   <si>
     <t>Owner</t>
   </si>
@@ -58,12 +58,6 @@
     <t>Shadow Chassis</t>
   </si>
   <si>
-    <t>PRT-12794</t>
-  </si>
-  <si>
-    <t>Jumper Wires - Connected 6\" (M/F, 20 pack)</t>
-  </si>
-  <si>
     <t>DEV-13787</t>
   </si>
   <si>
@@ -80,12 +74,6 @@
   </si>
   <si>
     <t>Infrared Proximity Sensor Short Range - Sharp GP2Y0A41SK0F</t>
-  </si>
-  <si>
-    <t>PRT-12795</t>
-  </si>
-  <si>
-    <t>Jumper Wires - Connected 6\" (M/M, 20 pack)</t>
   </si>
   <si>
     <t>ROB-09065</t>
@@ -344,12 +332,6 @@
     <t>ROB-12629</t>
   </si>
   <si>
-    <t>Female Headers</t>
-  </si>
-  <si>
-    <t>PRT-00115</t>
-  </si>
-  <si>
     <t>Polarized Connectors - Header (2-Pin)</t>
   </si>
   <si>
@@ -365,9 +347,6 @@
     <t>Sub-Total</t>
   </si>
   <si>
-    <t>Curie Classic Device Depot Kit (Beginner, Intermediate and Advanced)</t>
-  </si>
-  <si>
     <t>Advanced Addons</t>
   </si>
   <si>
@@ -413,9 +392,6 @@
     <t>A0</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -431,15 +407,6 @@
     <t>13 11-&gt;9PWM</t>
   </si>
   <si>
-    <t>0, 1, 2, 4, 8, 10</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A3, A4, A5</t>
-  </si>
-  <si>
     <t>LED RGB Addressable, PTH, 8mm (5pack)</t>
   </si>
   <si>
@@ -452,31 +419,226 @@
     <t>CAB-13685</t>
   </si>
   <si>
-    <t>Break Away Header - Straight</t>
-  </si>
-  <si>
     <t>PRT-10007</t>
   </si>
   <si>
-    <t>Arduino Stackable Header Kit</t>
-  </si>
-  <si>
-    <t>PRT-0016</t>
-  </si>
-  <si>
-    <t>PRT-13156</t>
-  </si>
-  <si>
-    <t>Header - 2x8 (Male, 0.1")</t>
-  </si>
-  <si>
-    <t>PRT-11269</t>
-  </si>
-  <si>
-    <t>Female Header Pack</t>
-  </si>
-  <si>
     <t>ProximitySensor</t>
+  </si>
+  <si>
+    <t>Wires Required</t>
+  </si>
+  <si>
+    <t>640550-4</t>
+  </si>
+  <si>
+    <t>3-640440-4</t>
+  </si>
+  <si>
+    <t>3-640620-4</t>
+  </si>
+  <si>
+    <t>640642-4</t>
+  </si>
+  <si>
+    <t>82-22-6103</t>
+  </si>
+  <si>
+    <t>Headers &amp; Wire Housings DUST COVER 4P Closed End
+QTY: 2</t>
+  </si>
+  <si>
+    <t>Headers &amp; Wire Housings DUST COVER 4P Feed-Thru
+QTY: 3</t>
+  </si>
+  <si>
+    <t>direct 
+connect to shield</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>M-F</t>
+  </si>
+  <si>
+    <t>M-M</t>
+  </si>
+  <si>
+    <t>PWR 5V</t>
+  </si>
+  <si>
+    <t>Signal</t>
+  </si>
+  <si>
+    <t>Red
+Black
+White</t>
+  </si>
+  <si>
+    <t>Black
+White</t>
+  </si>
+  <si>
+    <t>To IO pins Female header on shield</t>
+  </si>
+  <si>
+    <t>JST to Breadboard Cable
+Red 
+Black
+Yellow</t>
+  </si>
+  <si>
+    <t>From Power Pin of Shield to Male Header</t>
+  </si>
+  <si>
+    <t>From Ground pin of shield to Female Header</t>
+  </si>
+  <si>
+    <t>Jumper Wires Premium 6" M/M Pack of 10
+Qty: 3</t>
+  </si>
+  <si>
+    <t>PRT-08431</t>
+  </si>
+  <si>
+    <t>Arduino Stackable Header Kit
+Qty: 2</t>
+  </si>
+  <si>
+    <t>Shield side need 6 pin Header for Power</t>
+  </si>
+  <si>
+    <t>Shield side need 7 pin Header for Ground</t>
+  </si>
+  <si>
+    <t>** Flat Cables Rib Cbl .100 100ft Rl Tin 3Ckt 22awg @ $108
+Need 2ft / Chassis
+** Order this item per 50 Kits</t>
+  </si>
+  <si>
+    <t>Intel Maker Nation Device Depot Racer Kit (Beginner, Intermediate and Advanced)</t>
+  </si>
+  <si>
+    <t>IMR Provided 3D Printed Parts</t>
+  </si>
+  <si>
+    <t>9V Battery Holder</t>
+  </si>
+  <si>
+    <t>Proximity Sensor Holder</t>
+  </si>
+  <si>
+    <t>Servo Holder</t>
+  </si>
+  <si>
+    <t>8mm RGB LED Holder
+QTY: 4</t>
+  </si>
+  <si>
+    <t>IMR-RacerLED</t>
+  </si>
+  <si>
+    <t>IMR-RacerBatt</t>
+  </si>
+  <si>
+    <t>IMR-RacerPSens</t>
+  </si>
+  <si>
+    <t>IMR-RacerServo</t>
+  </si>
+  <si>
+    <t>A1,A2,A3, A4, A5</t>
+  </si>
+  <si>
+    <t>0, 1, 4, 10</t>
+  </si>
+  <si>
+    <t>Headers &amp; Wire Housings 4P 22AWG TIN CLSD W/O TAB W/RED STRIPE
+Qty: 2</t>
+  </si>
+  <si>
+    <t>Headers &amp; Wire Housings FEED THRU W/O TAB 4P red tin 22 AWG
+Qty: 3</t>
+  </si>
+  <si>
+    <t>direct 
+connect to shield
+White</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>9 to 11</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>A0 to Proximity Sensor</t>
+  </si>
+  <si>
+    <t>Pwr to Proximity sensor</t>
+  </si>
+  <si>
+    <t>Gnd to Proximity sensor</t>
+  </si>
+  <si>
+    <t>Gnd to gnd header</t>
+  </si>
+  <si>
+    <t>5V to pwr header</t>
+  </si>
+  <si>
+    <t>need an extra pin on pwr header</t>
+  </si>
+  <si>
+    <t>Max of 3000</t>
+  </si>
+  <si>
+    <t>Need to have 20 kits</t>
+  </si>
+  <si>
+    <t>need to include racetrack material</t>
+  </si>
+  <si>
+    <t>Research bulk quantity of parts</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>bulk</t>
+  </si>
+  <si>
+    <t>research piezo in bulk</t>
+  </si>
+  <si>
+    <t>look for cheaper sensor</t>
+  </si>
+  <si>
+    <t>racetrack and spares</t>
+  </si>
+  <si>
+    <t>19 kits</t>
+  </si>
+  <si>
+    <t>USB B cables</t>
+  </si>
+  <si>
+    <t>bpstore</t>
   </si>
 </sst>
 </file>
@@ -486,7 +648,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -543,8 +705,14 @@
       <name val="Intel Clear Light"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF004B85"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -560,6 +728,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -748,7 +922,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -786,6 +960,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -831,7 +1008,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -859,6 +1035,23 @@
     <xf numFmtId="44" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -1166,13 +1359,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>824865</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>824865</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1213,13 +1406,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>859155</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>859155</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1260,13 +1453,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>873125</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>873125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1307,13 +1500,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>873125</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>873125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1353,15 +1546,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>22861</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>873125</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>873125</xdr:rowOff>
+      <xdr:colOff>830581</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>815341</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1383,8 +1576,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="739140" y="12146280"/>
-          <a:ext cx="873125" cy="873125"/>
+          <a:off x="762001" y="5737861"/>
+          <a:ext cx="807720" cy="777240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1400,15 +1593,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>873125</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>873125</xdr:rowOff>
+      <xdr:colOff>850265</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>865505</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1430,8 +1623,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="739140" y="13335000"/>
-          <a:ext cx="873125" cy="873125"/>
+          <a:off x="777240" y="6629400"/>
+          <a:ext cx="812165" cy="842645"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1447,14 +1640,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>873125</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>873125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1477,8 +1670,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="739140" y="14523720"/>
-          <a:ext cx="873125" cy="873125"/>
+          <a:off x="762000" y="7536180"/>
+          <a:ext cx="850265" cy="850265"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1495,13 +1688,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>873125</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>873125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1542,13 +1735,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>873125</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>873125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1722,6 +1915,543 @@
         <a:ln>
           <a:noFill/>
         </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>799094</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>632460</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="ctl00_ContentMain_img1" descr="TE Connectivity / AMP 3-640440-4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="754380" y="16352520"/>
+          <a:ext cx="783854" cy="441960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>874287</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>655320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="ctl00_ContentMain_img1" descr="TE Connectivity 3-640620-4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="762000" y="17244060"/>
+          <a:ext cx="851427" cy="480060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>839638</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>609600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="ctl00_ContentMain_img1" descr="TE Connectivity / AMP 640642-4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="754380" y="19027140"/>
+          <a:ext cx="824398" cy="464820"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>854878</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>624840</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="ctl00_ContentMain_img1" descr="TE Connectivity 640550-4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="769620" y="18135600"/>
+          <a:ext cx="824398" cy="464820"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>853440</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>830580</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Picture 47" descr="Jumper Wires Premium 6&quot; M/F Pack of 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="762000" y="12108180"/>
+          <a:ext cx="830580" cy="830580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>861060</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>891540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Picture 48" descr="Jumper Wires Premium 6&quot; M/M Pack of 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="777240" y="13022580"/>
+          <a:ext cx="822960" cy="822960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>822960</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>845820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="ctl00_ContentMain_img1" descr="Molex 82-22-6103"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="792480" y="23942040"/>
+          <a:ext cx="769620" cy="769620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>60961</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>746761</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>875836</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Picture 50"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1249681" y="19880580"/>
+          <a:ext cx="685800" cy="852976"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>15241</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>60961</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>910329</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>861060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Picture 51"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1203961" y="21732241"/>
+          <a:ext cx="895088" cy="800099"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>731521</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>896193</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Picture 52"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1264921" y="22616160"/>
+          <a:ext cx="655320" cy="858093"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>784861</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>870271</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Picture 53"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1226821" y="20802601"/>
+          <a:ext cx="746760" cy="832170"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1997,7 +2727,7 @@
   </sheetPr>
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2010,7 +2740,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>2</v>
@@ -2022,181 +2752,181 @@
         <v>1</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="19"/>
+      <c r="A2" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
     </row>
     <row r="3" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>21</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="26" t="s">
-        <v>65</v>
+      <c r="E3" s="29" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="24"/>
+        <v>30</v>
+      </c>
+      <c r="C4" s="27"/>
       <c r="D4" s="9"/>
-      <c r="E4" s="27"/>
+      <c r="E4" s="30"/>
     </row>
     <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="31"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="28"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="19"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="22"/>
     </row>
     <row r="7" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>66</v>
+        <v>25</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>62</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="24"/>
+        <v>26</v>
+      </c>
+      <c r="C8" s="27"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="25"/>
+        <v>27</v>
+      </c>
+      <c r="C9" s="28"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19"/>
+      <c r="A10" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="22"/>
     </row>
     <row r="11" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>93</v>
+        <v>63</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>89</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B12" s="6"/>
-      <c r="C12" s="27"/>
+      <c r="C12" s="30"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B13" s="6"/>
-      <c r="C13" s="27"/>
+      <c r="C13" s="30"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B14" s="6"/>
-      <c r="C14" s="28"/>
+      <c r="C14" s="31"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="19"/>
+      <c r="A15" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="22"/>
     </row>
     <row r="16" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -2205,7 +2935,7 @@
     </row>
     <row r="18" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -2213,23 +2943,23 @@
       <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="19"/>
+      <c r="A19" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="22"/>
     </row>
     <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -2245,7 +2975,7 @@
     </row>
     <row r="22" spans="1:10" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>2</v>
@@ -2257,7 +2987,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -2267,7 +2997,7 @@
     </row>
     <row r="23" spans="1:10" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
@@ -2276,153 +3006,153 @@
     </row>
     <row r="24" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
     </row>
     <row r="26" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
     </row>
     <row r="27" spans="1:10" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
+      <c r="A28" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
     </row>
     <row r="29" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
     </row>
     <row r="30" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
     </row>
     <row r="31" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
     </row>
     <row r="33" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C33" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
     </row>
     <row r="34" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
     </row>
     <row r="35" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>3</v>
@@ -2431,63 +3161,63 @@
       <c r="E35" s="6"/>
     </row>
     <row r="36" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
+      <c r="A36" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
     </row>
     <row r="37" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C37" s="26" t="s">
-        <v>85</v>
+        <v>49</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>81</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" s="27"/>
+        <v>50</v>
+      </c>
+      <c r="C38" s="30"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C39" s="27"/>
+        <v>91</v>
+      </c>
+      <c r="C39" s="30"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C40" s="28"/>
+        <v>90</v>
+      </c>
+      <c r="C40" s="31"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>2</v>
@@ -2499,86 +3229,86 @@
         <v>1</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C42" s="26" t="s">
-        <v>85</v>
+        <v>54</v>
+      </c>
+      <c r="C42" s="29" t="s">
+        <v>81</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C43" s="27"/>
+        <v>56</v>
+      </c>
+      <c r="C43" s="30"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C44" s="27"/>
+        <v>58</v>
+      </c>
+      <c r="C44" s="30"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C45" s="28"/>
+        <v>60</v>
+      </c>
+      <c r="C45" s="31"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="22"/>
+      <c r="A46" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="25"/>
     </row>
     <row r="47" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -2610,326 +3340,488 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="70.6640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" style="42" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="83.109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="44" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-    </row>
-    <row r="2" spans="1:4" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="H1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="42">
+        <v>19.96</v>
+      </c>
+      <c r="H2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="35"/>
+      <c r="C3" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" s="42">
+        <f>1.2*2</f>
+        <v>2.4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="35"/>
+      <c r="C4" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="42">
+        <v>2.36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="36" t="s">
+      <c r="B5" s="35"/>
+      <c r="C5" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="40">
-        <v>19.96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="36" t="s">
-        <v>142</v>
-      </c>
-      <c r="D3" s="40">
+      <c r="D5" s="42">
+        <v>3.16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>190</v>
+      </c>
+      <c r="H5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="35"/>
+      <c r="C6" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="42">
+        <v>10.36</v>
+      </c>
+      <c r="E6" s="54" t="s">
+        <v>189</v>
+      </c>
+      <c r="F6">
+        <v>10.36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="35"/>
+      <c r="C7" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="42">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="35"/>
+      <c r="C8" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="36"/>
+      <c r="C9" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="42">
+        <v>10.36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="36"/>
+      <c r="C10" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="42">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>196</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" s="42">
+        <f>3.16*3</f>
+        <v>9.48</v>
+      </c>
+      <c r="E11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="18" x14ac:dyDescent="0.3">
+      <c r="C12" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="43">
+        <f>SUM(D2:D11)</f>
+        <v>89.44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+    </row>
+    <row r="14" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" s="35"/>
+      <c r="C14" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="42">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="36"/>
+      <c r="C15" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="42">
+        <v>4.76</v>
+      </c>
+      <c r="E15" t="s">
+        <v>191</v>
+      </c>
+      <c r="F15">
+        <f>4.76-1.56</f>
+        <v>3.1999999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" s="49"/>
+      <c r="C16" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="D16" s="42">
+        <f>0.27*2</f>
+        <v>0.54</v>
+      </c>
+      <c r="G16" s="19"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="19"/>
+    </row>
+    <row r="17" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" s="50"/>
+      <c r="C17" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="D17" s="42">
+        <f>0.34*3</f>
+        <v>1.02</v>
+      </c>
+      <c r="G17" s="19"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="19"/>
+    </row>
+    <row r="18" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B18" s="49"/>
+      <c r="C18" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="D18" s="42">
+        <f>0.16*2</f>
+        <v>0.32</v>
+      </c>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+    </row>
+    <row r="19" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19" s="50"/>
+      <c r="C19" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="D19" s="42">
+        <f>0.18*3</f>
+        <v>0.54</v>
+      </c>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+    </row>
+    <row r="20" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" s="36"/>
+      <c r="C20" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="D20" s="42">
+        <f>108/50</f>
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="18" x14ac:dyDescent="0.3">
+      <c r="C21" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="43">
+        <f>SUM(D14:D20)</f>
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+    </row>
+    <row r="23" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B23" s="36"/>
+      <c r="C23" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="D23" s="42">
         <v>1.2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" s="40">
-        <v>2.36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="40">
-        <v>3.16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="D6" s="40">
-        <v>10.36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="36" t="s">
+    <row r="24" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="36"/>
+      <c r="C24" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="42">
+        <v>11.16</v>
+      </c>
+      <c r="E24" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="36"/>
+      <c r="C25" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="42">
+        <v>7.16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="18" x14ac:dyDescent="0.3">
+      <c r="C26" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="D7" s="40">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="D8" s="40">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="D9" s="40">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="36" t="s">
-        <v>147</v>
-      </c>
-      <c r="D10" s="40">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="D11" s="40">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="D12" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="40">
-        <v>10.36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="40">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="40">
-        <v>1.56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="40">
-        <v>1.56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="C17" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="D17" s="41">
-        <f>SUM(D2:D16)</f>
-        <v>86.240000000000009</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-    </row>
-    <row r="19" spans="1:4" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="D19" s="40">
-        <v>2.36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="40">
-        <v>4.76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="C21" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="D21" s="41">
-        <f>SUM(D19:D20)</f>
-        <v>7.1199999999999992</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-    </row>
-    <row r="23" spans="1:4" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="D23" s="40">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="40">
-        <v>11.16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="40">
-        <v>7.16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="C26" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="D26" s="41">
+      <c r="D26" s="43">
         <f>SUM(D23:D25)</f>
         <v>19.52</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="D28" s="43">
-        <f>SUM(D17,D21,D26)</f>
-        <v>112.88000000000001</v>
+    <row r="27" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+    </row>
+    <row r="28" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="B28" s="18"/>
+      <c r="C28" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="D28" s="42">
+        <f>0.65*4</f>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="B29" s="18"/>
+      <c r="C29" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="D29" s="42">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="B30" s="18"/>
+      <c r="C30" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="D30" s="42">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B31" s="18"/>
+      <c r="C31" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="D31" s="42">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C32" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" s="43">
+        <f>SUM(D28:D31)</f>
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C33" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="D33" s="45">
+        <f>SUM(D12,D21,D26,D32)</f>
+        <v>129.26</v>
+      </c>
+      <c r="F33">
+        <f>SUM(F2:F32)</f>
+        <v>17.559999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D34" s="44">
+        <f>D33-F33</f>
+        <v>111.69999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="D35" s="43">
+        <f>D34*19</f>
+        <v>2122.2999999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="40" t="s">
+        <v>193</v>
+      </c>
+      <c r="D36" s="44">
+        <f>3000-D35</f>
+        <v>877.70000000000027</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="40" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A22:D22"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A27:D27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="https://www.sparkfun.com/products/9815"/>
@@ -2937,119 +3829,144 @@
     <hyperlink ref="A4" r:id="rId3" display="https://www.sparkfun.com/products/13259"/>
     <hyperlink ref="A5" r:id="rId4" display="https://www.sparkfun.com/products/13302"/>
     <hyperlink ref="A6" r:id="rId5" display="https://www.sparkfun.com/products/12629"/>
-    <hyperlink ref="A7" r:id="rId6" display="https://www.sparkfun.com/products/115"/>
-    <hyperlink ref="A8" r:id="rId7" display="https://www.sparkfun.com/products/116"/>
-    <hyperlink ref="A9" r:id="rId8" display="https://www.sparkfun.com/products/13156"/>
-    <hyperlink ref="A10" r:id="rId9" display="https://www.sparkfun.com/products/11269"/>
-    <hyperlink ref="A11" r:id="rId10" display="https://www.sparkfun.com/products/8233"/>
-    <hyperlink ref="A12" r:id="rId11" display="https://www.sparkfun.com/products/91"/>
-    <hyperlink ref="A13" r:id="rId12" display="https://www.sparkfun.com/products/13301"/>
-    <hyperlink ref="A14" r:id="rId13" display="https://www.sparkfun.com/products/13787"/>
-    <hyperlink ref="A15" r:id="rId14" display="https://www.sparkfun.com/products/12794"/>
-    <hyperlink ref="A16" r:id="rId15" display="https://www.sparkfun.com/products/12795"/>
-    <hyperlink ref="A19" r:id="rId16" display="https://www.sparkfun.com/products/12877"/>
-    <hyperlink ref="A20" r:id="rId17" display="https://www.sparkfun.com/products/12567"/>
-    <hyperlink ref="A23" r:id="rId18" display="https://www.sparkfun.com/products/13685"/>
-    <hyperlink ref="A24" r:id="rId19" display="https://www.sparkfun.com/products/12728"/>
-    <hyperlink ref="A25" r:id="rId20" display="https://www.sparkfun.com/products/9065"/>
+    <hyperlink ref="A7" r:id="rId6" display="https://www.sparkfun.com/products/8233"/>
+    <hyperlink ref="A8" r:id="rId7" display="https://www.sparkfun.com/products/91"/>
+    <hyperlink ref="A9" r:id="rId8" display="https://www.sparkfun.com/products/13301"/>
+    <hyperlink ref="A10" r:id="rId9" display="https://www.sparkfun.com/products/13787"/>
+    <hyperlink ref="A11" r:id="rId10"/>
+    <hyperlink ref="A14" r:id="rId11" display="https://www.sparkfun.com/products/12877"/>
+    <hyperlink ref="A15" r:id="rId12" display="https://www.sparkfun.com/products/12567"/>
+    <hyperlink ref="A23" r:id="rId13" display="https://www.sparkfun.com/products/13685"/>
+    <hyperlink ref="A24" r:id="rId14" display="https://www.sparkfun.com/products/12728"/>
+    <hyperlink ref="A25" r:id="rId15" display="https://www.sparkfun.com/products/9065"/>
+    <hyperlink ref="A20" r:id="rId16"/>
+    <hyperlink ref="A16" r:id="rId17"/>
+    <hyperlink ref="A17" r:id="rId18"/>
+    <hyperlink ref="A19" r:id="rId19"/>
+    <hyperlink ref="A18" r:id="rId20"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId21"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="87" orientation="landscape" r:id="rId21"/>
+  <headerFooter>
+    <oddHeader>&amp;LIntel Maker Nation Presents&amp;CA Friends and Family Event&amp;RApril 2016</oddHeader>
+  </headerFooter>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="23" max="3" man="1"/>
+  </rowBreaks>
+  <drawing r:id="rId22"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="G1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="H1" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="I1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E2" t="s">
-        <v>128</v>
+        <v>120</v>
+      </c>
+      <c r="G2" t="s">
+        <v>120</v>
       </c>
       <c r="H2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="I2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F3" t="s">
-        <v>128</v>
+        <v>120</v>
+      </c>
+      <c r="G3" t="s">
+        <v>120</v>
       </c>
       <c r="H3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="I3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" t="s">
         <v>123</v>
       </c>
-      <c r="B4" t="s">
-        <v>131</v>
-      </c>
       <c r="C4" t="s">
-        <v>132</v>
+        <v>124</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="G4" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="I4">
         <v>7</v>
@@ -3057,32 +3974,202 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D5" t="s">
-        <v>126</v>
-      </c>
-      <c r="E5" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="H5" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B8" t="s">
-        <v>135</v>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" s="52" t="s">
+        <v>173</v>
+      </c>
+      <c r="D11" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="E11" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="F11" s="52" t="s">
+        <v>148</v>
+      </c>
+      <c r="G11" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="H11" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="I11" s="52" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>152</v>
+      </c>
+      <c r="E13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>145</v>
+      </c>
+      <c r="B14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="F14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" t="s">
+        <v>141</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="F15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>146</v>
+      </c>
+      <c r="B16" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" t="s">
+        <v>142</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="F16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18" t="s">
+        <v>174</v>
+      </c>
+      <c r="D18" s="53" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19" t="s">
+        <v>175</v>
+      </c>
+      <c r="D19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" t="s">
+        <v>177</v>
+      </c>
+      <c r="D20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" t="s">
+        <v>178</v>
+      </c>
+      <c r="D21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" t="s">
+        <v>177</v>
+      </c>
+      <c r="D22" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>144</v>
+      </c>
+      <c r="C23" t="s">
+        <v>178</v>
+      </c>
+      <c r="D23" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/NMMakerFnFEvent_BOM.xlsx
+++ b/NMMakerFnFEvent_BOM.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="208">
   <si>
     <t>Owner</t>
   </si>
@@ -511,12 +511,6 @@
 Qty: 2</t>
   </si>
   <si>
-    <t>Shield side need 6 pin Header for Power</t>
-  </si>
-  <si>
-    <t>Shield side need 7 pin Header for Ground</t>
-  </si>
-  <si>
     <t>** Flat Cables Rib Cbl .100 100ft Rl Tin 3Ckt 22awg @ $108
 Need 2ft / Chassis
 ** Order this item per 50 Kits</t>
@@ -602,9 +596,6 @@
     <t>5V to pwr header</t>
   </si>
   <si>
-    <t>need an extra pin on pwr header</t>
-  </si>
-  <si>
     <t>Max of 3000</t>
   </si>
   <si>
@@ -614,9 +605,6 @@
     <t>need to include racetrack material</t>
   </si>
   <si>
-    <t>Research bulk quantity of parts</t>
-  </si>
-  <si>
     <t>drop</t>
   </si>
   <si>
@@ -639,6 +627,51 @@
   </si>
   <si>
     <t>bpstore</t>
+  </si>
+  <si>
+    <t>Shield side need 4 pin Header for Power</t>
+  </si>
+  <si>
+    <t>Shield side need 5 pin Header for Ground</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/10897</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/7950</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Sharp-Microelectronics/GP2Y0A41SK0F/?qs=2FIyTMJ0hNntc9zAbfAZXg%3d%3d&amp;gclid=CMWboJjqucsCFRSFfgod3fMJiQ</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/Search/ProductDetail.aspx?qs=d7g9p1yFhWaZXSY9MjKMkw%3d%3d</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>Mouser</t>
+  </si>
+  <si>
+    <t>Sparkfun</t>
+  </si>
+  <si>
+    <t>BP</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Costs</t>
+  </si>
+  <si>
+    <t>Shipping</t>
+  </si>
+  <si>
+    <t>Totals</t>
+  </si>
+  <si>
+    <t>per kit (@20 of them)</t>
   </si>
 </sst>
 </file>
@@ -648,7 +681,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -711,6 +744,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -738,7 +777,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -916,13 +955,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal style="dotted">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="dashed">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="dashed">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -963,6 +1043,47 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1008,50 +1129,24 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -2756,13 +2851,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="41"/>
     </row>
     <row r="3" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
@@ -2771,13 +2866,13 @@
       <c r="B3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="45" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="48" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2788,9 +2883,9 @@
       <c r="B4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="27"/>
+      <c r="C4" s="46"/>
       <c r="D4" s="9"/>
-      <c r="E4" s="30"/>
+      <c r="E4" s="49"/>
     </row>
     <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
@@ -2799,18 +2894,18 @@
       <c r="B5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="28"/>
+      <c r="C5" s="47"/>
       <c r="D5" s="9"/>
-      <c r="E5" s="31"/>
+      <c r="E5" s="50"/>
     </row>
     <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="22"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="41"/>
     </row>
     <row r="7" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
@@ -2819,7 +2914,7 @@
       <c r="B7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="45" t="s">
         <v>62</v>
       </c>
       <c r="D7" s="6"/>
@@ -2832,7 +2927,7 @@
       <c r="B8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="27"/>
+      <c r="C8" s="46"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
@@ -2843,18 +2938,18 @@
       <c r="B9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="28"/>
+      <c r="C9" s="47"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="22"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="41"/>
     </row>
     <row r="11" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
@@ -2863,7 +2958,7 @@
       <c r="B11" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="48" t="s">
         <v>89</v>
       </c>
       <c r="D11" s="6" t="s">
@@ -2876,7 +2971,7 @@
         <v>41</v>
       </c>
       <c r="B12" s="6"/>
-      <c r="C12" s="30"/>
+      <c r="C12" s="49"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
     </row>
@@ -2885,7 +2980,7 @@
         <v>41</v>
       </c>
       <c r="B13" s="6"/>
-      <c r="C13" s="30"/>
+      <c r="C13" s="49"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
     </row>
@@ -2894,18 +2989,18 @@
         <v>41</v>
       </c>
       <c r="B14" s="6"/>
-      <c r="C14" s="31"/>
+      <c r="C14" s="50"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="22"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="41"/>
     </row>
     <row r="16" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
@@ -2943,13 +3038,13 @@
       <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="22"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="41"/>
     </row>
     <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
@@ -3059,13 +3154,13 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
     </row>
     <row r="29" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
@@ -3161,13 +3256,13 @@
       <c r="E35" s="6"/>
     </row>
     <row r="36" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="33" t="s">
+      <c r="A36" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
     </row>
     <row r="37" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
@@ -3176,7 +3271,7 @@
       <c r="B37" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="29" t="s">
+      <c r="C37" s="48" t="s">
         <v>81</v>
       </c>
       <c r="D37" s="1"/>
@@ -3189,7 +3284,7 @@
       <c r="B38" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="30"/>
+      <c r="C38" s="49"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
@@ -3200,7 +3295,7 @@
       <c r="B39" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C39" s="30"/>
+      <c r="C39" s="49"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
@@ -3211,7 +3306,7 @@
       <c r="B40" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="C40" s="31"/>
+      <c r="C40" s="50"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
@@ -3239,7 +3334,7 @@
       <c r="B42" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="29" t="s">
+      <c r="C42" s="48" t="s">
         <v>81</v>
       </c>
       <c r="D42" s="1"/>
@@ -3252,7 +3347,7 @@
       <c r="B43" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C43" s="30"/>
+      <c r="C43" s="49"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
@@ -3263,7 +3358,7 @@
       <c r="B44" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C44" s="30"/>
+      <c r="C44" s="49"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
@@ -3274,18 +3369,18 @@
       <c r="B45" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="31"/>
+      <c r="C45" s="50"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="23" t="s">
+      <c r="A46" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="B46" s="24"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="25"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="44"/>
     </row>
     <row r="47" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="11" t="s">
@@ -3340,275 +3435,361 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="83.109375" style="40" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="44" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="83.109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="28" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:16" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
       <c r="H1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>183</v>
+      </c>
+      <c r="K1" t="s">
+        <v>200</v>
+      </c>
+      <c r="L1" t="s">
+        <v>201</v>
+      </c>
+      <c r="M1" t="s">
+        <v>202</v>
+      </c>
+      <c r="N1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="38" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="42">
+      <c r="D2" s="26">
         <v>19.96</v>
       </c>
       <c r="H2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>182</v>
+      </c>
+      <c r="K2">
+        <v>285.2</v>
+      </c>
+      <c r="L2">
+        <v>982.96</v>
+      </c>
+      <c r="M2">
+        <v>520</v>
+      </c>
+      <c r="N2">
+        <v>40.72</v>
+      </c>
+      <c r="O2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="47" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="D3" s="42">
+      <c r="D3" s="26">
         <f>1.2*2</f>
         <v>2.4</v>
       </c>
       <c r="H3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>184</v>
+      </c>
+      <c r="K3">
+        <v>9</v>
+      </c>
+      <c r="L3" t="s">
+        <v>199</v>
+      </c>
+      <c r="M3">
+        <v>44.61</v>
+      </c>
+      <c r="N3" t="s">
+        <v>199</v>
+      </c>
+      <c r="O3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="38" t="s">
+      <c r="B4" s="20"/>
+      <c r="C4" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="42">
+      <c r="D4" s="26">
         <v>2.36</v>
       </c>
-      <c r="E4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K4">
+        <f>SUM(K2:K3)</f>
+        <v>294.2</v>
+      </c>
+      <c r="L4">
+        <f>L2</f>
+        <v>982.96</v>
+      </c>
+      <c r="M4">
+        <f>SUM(M2:M3)</f>
+        <v>564.61</v>
+      </c>
+      <c r="N4">
+        <f>N2</f>
+        <v>40.72</v>
+      </c>
+      <c r="O4">
+        <f>SUM(K4:N4)</f>
+        <v>1882.49</v>
+      </c>
+      <c r="P4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="38" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="D5" s="42">
+      <c r="D5" s="26">
         <v>3.16</v>
       </c>
-      <c r="E5" t="s">
-        <v>190</v>
-      </c>
-      <c r="H5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="16" t="s">
+      <c r="N5">
+        <f>O4/20</f>
+        <v>94.124499999999998</v>
+      </c>
+      <c r="O5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="38" t="s">
+      <c r="B6" s="59"/>
+      <c r="C6" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="42">
+      <c r="D6" s="61">
         <v>10.36</v>
       </c>
-      <c r="E6" s="54" t="s">
-        <v>189</v>
+      <c r="E6" s="38" t="s">
+        <v>185</v>
       </c>
       <c r="F6">
         <v>10.36</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="38" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="D7" s="42">
+      <c r="D7" s="26">
         <v>0.36</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="38" t="s">
+      <c r="B8" s="20"/>
+      <c r="C8" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D8" s="42">
+      <c r="D8" s="26">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="38" t="s">
+      <c r="B9" s="21"/>
+      <c r="C9" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="42">
+      <c r="D9" s="26">
         <v>10.36</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="38" t="s">
+      <c r="B10" s="21"/>
+      <c r="C10" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="42">
+      <c r="D10" s="26">
         <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F10">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="16" t="s">
         <v>154</v>
       </c>
       <c r="B11" s="18"/>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="D11" s="42">
+      <c r="D11" s="26">
         <f>3.16*3</f>
         <v>9.48</v>
       </c>
       <c r="E11" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="18" x14ac:dyDescent="0.3">
-      <c r="C12" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="G11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I11">
+        <v>19.96</v>
+      </c>
+      <c r="J11">
+        <f>I11/4</f>
+        <v>4.99</v>
+      </c>
+      <c r="K11" s="57"/>
+    </row>
+    <row r="12" spans="1:16" ht="18" x14ac:dyDescent="0.3">
+      <c r="C12" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="D12" s="43">
+      <c r="D12" s="27">
         <f>SUM(D2:D11)</f>
         <v>89.44</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="37" t="s">
+    <row r="13" spans="1:16" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-    </row>
-    <row r="14" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+    </row>
+    <row r="14" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="38" t="s">
+      <c r="B14" s="20"/>
+      <c r="C14" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="D14" s="42">
+      <c r="D14" s="26">
         <v>2.36</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="38" t="s">
+      <c r="B15" s="21"/>
+      <c r="C15" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="42">
+      <c r="D15" s="26">
         <v>4.76</v>
       </c>
       <c r="E15" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F15">
         <f>4.76-1.56</f>
         <v>3.1999999999999997</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G15" t="s">
+        <v>196</v>
+      </c>
+      <c r="I15">
+        <v>1.56</v>
+      </c>
+      <c r="K15" t="s">
+        <v>198</v>
+      </c>
+      <c r="L15">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="B16" s="49"/>
-      <c r="C16" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="D16" s="42">
+      <c r="B16" s="33"/>
+      <c r="C16" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="D16" s="26">
         <f>0.27*2</f>
         <v>0.54</v>
       </c>
       <c r="G16" s="19"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="46"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="30"/>
       <c r="J16" s="19"/>
     </row>
     <row r="17" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="48" t="s">
-        <v>172</v>
-      </c>
-      <c r="D17" s="42">
+      <c r="B17" s="34"/>
+      <c r="C17" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="D17" s="26">
         <f>0.34*3</f>
         <v>1.02</v>
       </c>
       <c r="G17" s="19"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="46"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="30"/>
       <c r="J17" s="19"/>
     </row>
     <row r="18" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="48" t="s">
+      <c r="B18" s="33"/>
+      <c r="C18" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="D18" s="42">
+      <c r="D18" s="26">
         <f>0.16*2</f>
         <v>0.32</v>
       </c>
@@ -3619,11 +3800,11 @@
       <c r="A19" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="B19" s="50"/>
-      <c r="C19" s="48" t="s">
+      <c r="B19" s="34"/>
+      <c r="C19" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="D19" s="42">
+      <c r="D19" s="26">
         <f>0.18*3</f>
         <v>0.54</v>
       </c>
@@ -3634,41 +3815,41 @@
       <c r="A20" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="47" t="s">
-        <v>158</v>
-      </c>
-      <c r="D20" s="42">
+      <c r="B20" s="21"/>
+      <c r="C20" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="D20" s="26">
         <f>108/50</f>
         <v>2.16</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="18" x14ac:dyDescent="0.3">
-      <c r="C21" s="39" t="s">
+      <c r="C21" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="D21" s="43">
+      <c r="D21" s="27">
         <f>SUM(D14:D20)</f>
         <v>11.7</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
     </row>
     <row r="23" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="B23" s="36"/>
-      <c r="C23" s="38" t="s">
+      <c r="B23" s="21"/>
+      <c r="C23" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="D23" s="42">
+      <c r="D23" s="26">
         <v>1.2</v>
       </c>
     </row>
@@ -3676,109 +3857,132 @@
       <c r="A24" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="38" t="s">
+      <c r="B24" s="21"/>
+      <c r="C24" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="42">
+      <c r="D24" s="26">
         <v>11.16</v>
       </c>
       <c r="E24" t="s">
-        <v>192</v>
+        <v>188</v>
+      </c>
+      <c r="H24" t="s">
+        <v>197</v>
+      </c>
+      <c r="I24">
+        <v>7.54</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="36"/>
-      <c r="C25" s="38" t="s">
+      <c r="B25" s="21"/>
+      <c r="C25" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="42">
+      <c r="D25" s="26">
         <v>7.16</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="18" x14ac:dyDescent="0.3">
-      <c r="C26" s="39" t="s">
+      <c r="C26" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="D26" s="43">
+      <c r="D26" s="27">
         <f>SUM(D23:D25)</f>
         <v>19.52</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
+      <c r="A27" s="54" t="s">
+        <v>158</v>
+      </c>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
     </row>
     <row r="28" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B28" s="18"/>
-      <c r="C28" s="38" t="s">
-        <v>164</v>
-      </c>
-      <c r="D28" s="42">
+      <c r="C28" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="D28" s="26">
         <f>0.65*4</f>
         <v>2.6</v>
       </c>
+      <c r="E28">
+        <v>1.82</v>
+      </c>
     </row>
     <row r="29" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B29" s="18"/>
-      <c r="C29" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="D29" s="42">
+      <c r="C29" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="D29" s="26">
         <v>1.55</v>
+      </c>
+      <c r="E29">
+        <v>4.55</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="16" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B30" s="18"/>
-      <c r="C30" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="D30" s="42">
+      <c r="C30" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="D30" s="26">
         <v>3.3</v>
+      </c>
+      <c r="E30">
+        <v>1.885</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B31" s="18"/>
-      <c r="C31" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="D31" s="42">
+      <c r="C31" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="D31" s="26">
         <v>1.1499999999999999</v>
       </c>
+      <c r="E31">
+        <v>2.08</v>
+      </c>
     </row>
     <row r="32" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C32" s="39" t="s">
+      <c r="C32" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="D32" s="43">
+      <c r="D32" s="27">
         <f>SUM(D28:D31)</f>
         <v>8.6</v>
       </c>
+      <c r="E32">
+        <f>SUM(E28:E31)</f>
+        <v>10.335000000000001</v>
+      </c>
+      <c r="F32" s="57"/>
     </row>
     <row r="33" spans="3:6" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C33" s="41" t="s">
-        <v>159</v>
-      </c>
-      <c r="D33" s="45">
+      <c r="C33" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="D33" s="29">
         <f>SUM(D12,D21,D26,D32)</f>
         <v>129.26</v>
       </c>
@@ -3788,32 +3992,32 @@
       </c>
     </row>
     <row r="34" spans="3:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D34" s="44">
+      <c r="D34" s="28">
         <f>D33-F33</f>
         <v>111.69999999999999</v>
       </c>
     </row>
     <row r="35" spans="3:6" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="39" t="s">
-        <v>194</v>
-      </c>
-      <c r="D35" s="43">
+      <c r="C35" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="D35" s="27">
         <f>D34*19</f>
         <v>2122.2999999999997</v>
       </c>
     </row>
     <row r="36" spans="3:6" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="40" t="s">
-        <v>193</v>
-      </c>
-      <c r="D36" s="44">
+      <c r="C36" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="D36" s="28">
         <f>3000-D35</f>
         <v>877.70000000000027</v>
       </c>
     </row>
     <row r="38" spans="3:6" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="40" t="s">
-        <v>195</v>
+      <c r="C38" s="24" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -3859,10 +4063,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3884,10 +4088,10 @@
       <c r="C1" t="s">
         <v>109</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="55" t="s">
         <v>111</v>
       </c>
       <c r="F1" t="s">
@@ -3907,10 +4111,10 @@
       <c r="A2" t="s">
         <v>118</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="55" t="s">
         <v>120</v>
       </c>
       <c r="G2" t="s">
@@ -3927,10 +4131,10 @@
       <c r="A3" t="s">
         <v>115</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="55" t="s">
         <v>120</v>
       </c>
       <c r="F3" t="s">
@@ -3956,10 +4160,10 @@
       <c r="C4" t="s">
         <v>124</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="55">
         <v>2</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="55">
         <v>8</v>
       </c>
       <c r="F4" t="s">
@@ -3976,54 +4180,70 @@
       <c r="A5" t="s">
         <v>117</v>
       </c>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
       <c r="H5" t="s">
         <v>119</v>
       </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>116</v>
       </c>
       <c r="B7" t="s">
-        <v>170</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>117</v>
       </c>
       <c r="B8" t="s">
-        <v>169</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B11" s="52" t="s">
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+    </row>
+    <row r="11" spans="1:9" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="C11" s="52" t="s">
-        <v>173</v>
-      </c>
-      <c r="D11" s="52" t="s">
+      <c r="C11" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="D11" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="E11" s="52" t="s">
+      <c r="E11" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="F11" s="52" t="s">
+      <c r="F11" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="G11" s="52" t="s">
+      <c r="G11" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="H11" s="52" t="s">
+      <c r="H11" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="I11" s="52" t="s">
+      <c r="I11" s="36" t="s">
         <v>147</v>
       </c>
     </row>
@@ -4031,16 +4251,16 @@
       <c r="A12" t="s">
         <v>151</v>
       </c>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
       <c r="E12" t="s">
         <v>140</v>
       </c>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -4061,10 +4281,10 @@
         <v>140</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F14" t="s">
-        <v>156</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -4078,10 +4298,10 @@
         <v>141</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>157</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -4106,10 +4326,10 @@
         <v>144</v>
       </c>
       <c r="C18" t="s">
+        <v>172</v>
+      </c>
+      <c r="D18" s="37" t="s">
         <v>174</v>
-      </c>
-      <c r="D18" s="53" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
@@ -4117,10 +4337,10 @@
         <v>143</v>
       </c>
       <c r="C19" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
@@ -4128,10 +4348,10 @@
         <v>143</v>
       </c>
       <c r="C20" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D20" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
@@ -4139,10 +4359,10 @@
         <v>143</v>
       </c>
       <c r="C21" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D21" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
@@ -4150,10 +4370,10 @@
         <v>144</v>
       </c>
       <c r="C22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D22" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
@@ -4161,18 +4381,14 @@
         <v>144</v>
       </c>
       <c r="C23" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D23" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D25" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/NMMakerFnFEvent_BOM.xlsx
+++ b/NMMakerFnFEvent_BOM.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="206">
   <si>
     <t>Owner</t>
   </si>
@@ -61,25 +61,7 @@
     <t>DEV-13787</t>
   </si>
   <si>
-    <t>Arduino 101</t>
-  </si>
-  <si>
-    <t>ROB-12567</t>
-  </si>
-  <si>
-    <t>SparkFun RedBot Buzzer</t>
-  </si>
-  <si>
-    <t>SEN-12728</t>
-  </si>
-  <si>
-    <t>Infrared Proximity Sensor Short Range - Sharp GP2Y0A41SK0F</t>
-  </si>
-  <si>
     <t>ROB-09065</t>
-  </si>
-  <si>
-    <t>Servo - Generic (Sub-Micro Size)</t>
   </si>
   <si>
     <t>Header</t>
@@ -324,9 +306,6 @@
   </si>
   <si>
     <t>ROB-13302</t>
-  </si>
-  <si>
-    <t>Wheel Encoder Kit</t>
   </si>
   <si>
     <t>ROB-12629</t>
@@ -500,13 +479,6 @@
     <t>From Ground pin of shield to Female Header</t>
   </si>
   <si>
-    <t>Jumper Wires Premium 6" M/M Pack of 10
-Qty: 3</t>
-  </si>
-  <si>
-    <t>PRT-08431</t>
-  </si>
-  <si>
     <t>Arduino Stackable Header Kit
 Qty: 2</t>
   </si>
@@ -566,21 +538,6 @@
 White</t>
   </si>
   <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>yellow</t>
-  </si>
-  <si>
-    <t>9 to 11</t>
-  </si>
-  <si>
-    <t>red</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
     <t>A0 to Proximity Sensor</t>
   </si>
   <si>
@@ -602,51 +559,9 @@
     <t>Need to have 20 kits</t>
   </si>
   <si>
-    <t>need to include racetrack material</t>
-  </si>
-  <si>
     <t>drop</t>
   </si>
   <si>
-    <t>bulk</t>
-  </si>
-  <si>
-    <t>research piezo in bulk</t>
-  </si>
-  <si>
-    <t>look for cheaper sensor</t>
-  </si>
-  <si>
-    <t>racetrack and spares</t>
-  </si>
-  <si>
-    <t>19 kits</t>
-  </si>
-  <si>
-    <t>USB B cables</t>
-  </si>
-  <si>
-    <t>bpstore</t>
-  </si>
-  <si>
-    <t>Shield side need 4 pin Header for Power</t>
-  </si>
-  <si>
-    <t>Shield side need 5 pin Header for Ground</t>
-  </si>
-  <si>
-    <t>https://www.sparkfun.com/products/10897</t>
-  </si>
-  <si>
-    <t>https://www.sparkfun.com/products/7950</t>
-  </si>
-  <si>
-    <t>http://www.mouser.com/ProductDetail/Sharp-Microelectronics/GP2Y0A41SK0F/?qs=2FIyTMJ0hNntc9zAbfAZXg%3d%3d&amp;gclid=CMWboJjqucsCFRSFfgod3fMJiQ</t>
-  </si>
-  <si>
-    <t>http://www.mouser.com/Search/ProductDetail.aspx?qs=d7g9p1yFhWaZXSY9MjKMkw%3d%3d</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
@@ -668,10 +583,96 @@
     <t>Shipping</t>
   </si>
   <si>
-    <t>Totals</t>
-  </si>
-  <si>
-    <t>per kit (@20 of them)</t>
+    <t>5 -&gt; 3</t>
+  </si>
+  <si>
+    <t>6 -&gt; 4</t>
+  </si>
+  <si>
+    <t>Shield side need (7 w/encoders) 5 pin Header for Ground</t>
+  </si>
+  <si>
+    <t>Shield side need (6 w/encoders) 4 pin Header for Power</t>
+  </si>
+  <si>
+    <t>9 to 11 jumper</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>Arduino 101 from BP Store</t>
+  </si>
+  <si>
+    <t>Wheel Encoder Kit @10.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 810-PS1240P02BT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piezo Buzzer Audio Indicators &amp; Alerts Round 12.2mmx6.5mm 4kHz Vin=3V </t>
+  </si>
+  <si>
+    <t>852-GP2Y0A41SK0F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proximity Sensors Dist Meas Sensor Analog, 4-30 cm </t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>Bulk (20)</t>
+  </si>
+  <si>
+    <t>Omall (TM) 40pin 300mm 1P-1P Male to Female Breadboard Cable Jump Wire Jumper For Arduino(Pack of 2) @7.99 for proximity sensor
+Qty: need 3/kit include 4/kit</t>
+  </si>
+  <si>
+    <t>Omall (TM) 40PIN 20cm 1P-1P Male to Male Breadboard Cable Jump Wire
+ Jumper For Arduino(Pack of 2) @7.99 purchase 4
+Qty: need 15 /kit include 16/kit</t>
+  </si>
+  <si>
+    <t>Amaxon</t>
+  </si>
+  <si>
+    <t>Cable Matters (3 Pack) Hi-Speed USB 2.0 Type A to B Printer Scanner Cable - 3 Feet   @ 8.99 puchase 7
+Qty: need 1/kit</t>
+  </si>
+  <si>
+    <t>Tizzy-BAC ® 10pcs *Rc Mini Micro 9g 1.6KG Servo SG90 
+for RC 250 450 Helicopter Airplane Car Boat  @ 20.99 purchase 2
+Qty: need 1 / kit</t>
+  </si>
+  <si>
+    <t>Per kit cost at 20 unit bulk order</t>
+  </si>
+  <si>
+    <t>IMR 
+3D Prints for 20 kits</t>
+  </si>
+  <si>
+    <t>S&amp;H</t>
+  </si>
+  <si>
+    <t>Sub-Totals</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>per kit cost</t>
+  </si>
+  <si>
+    <t>Shipping &amp; Handling</t>
+  </si>
+  <si>
+    <t>3wire cable
+ not all used with just 20</t>
+  </si>
+  <si>
+    <t>racetrack and spares Budget</t>
   </si>
 </sst>
 </file>
@@ -681,7 +682,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -750,8 +751,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -773,6 +796,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1002,7 +1043,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1137,9 +1178,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1147,6 +1185,33 @@
     <xf numFmtId="44" fontId="7" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -1783,13 +1848,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>873125</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>873125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1830,60 +1895,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>873125</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>873125</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="Picture 33" descr="Product Image"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="739140" y="19735800"/>
-          <a:ext cx="873125" cy="873125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>873125</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>873125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1892,7 +1910,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1924,13 +1942,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>873125</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>873125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1939,7 +1957,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1969,16 +1987,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>873125</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>873125</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>423545</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>4445</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1986,7 +2004,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2000,7 +2018,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="739140" y="23759160"/>
+          <a:off x="11094720" y="20314920"/>
           <a:ext cx="873125" cy="873125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2018,13 +2036,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>799094</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>632460</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2035,7 +2053,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2073,13 +2091,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>874287</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>655320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2090,7 +2108,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2128,13 +2146,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>839638</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>609600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2145,7 +2163,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2183,13 +2201,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>854878</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>624840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2200,7 +2218,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2237,124 +2255,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>853440</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>830580</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="48" name="Picture 47" descr="Jumper Wires Premium 6&quot; M/F Pack of 10"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="762000" y="12108180"/>
-          <a:ext cx="830580" cy="830580"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>861060</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>891540</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="Picture 48" descr="Jumper Wires Premium 6&quot; M/M Pack of 10"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="777240" y="13022580"/>
-          <a:ext cx="822960" cy="822960"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>822960</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>845820</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2365,7 +2273,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2403,13 +2311,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>60961</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>746761</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>875836</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2420,7 +2328,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2441,13 +2349,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>15241</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>60961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>910329</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>861060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2458,7 +2366,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2479,13 +2387,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>76201</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>731521</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>896193</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2496,7 +2404,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2517,18 +2425,132 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>38101</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>784861</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>870271</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="54" name="Picture 53"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1226821" y="20802601"/>
+          <a:ext cx="746760" cy="832170"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>15241</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>830581</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>862075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1303021" y="8435341"/>
+          <a:ext cx="716280" cy="846834"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>137161</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>874776</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>617221</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1242060" y="9464041"/>
+          <a:ext cx="821436" cy="480060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>845821</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>797141</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2541,8 +2563,101 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1226821" y="20802601"/>
-          <a:ext cx="746760" cy="832170"/>
+          <a:off x="1188721" y="10233661"/>
+          <a:ext cx="845820" cy="797140"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>872278</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="ctl00_ContentMain_img1" descr="TDK PS1240P02BT"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1249680" y="12565380"/>
+          <a:ext cx="739140" cy="841798"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7621</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>30481</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>893115</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>861061</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1196341" y="20307301"/>
+          <a:ext cx="885494" cy="830580"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2835,7 +2950,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>2</v>
@@ -2847,12 +2962,12 @@
         <v>1</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B2" s="40"/>
       <c r="C2" s="40"/>
@@ -2861,27 +2976,27 @@
     </row>
     <row r="3" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C3" s="45" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="48" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C4" s="46"/>
       <c r="D4" s="9"/>
@@ -2889,10 +3004,10 @@
     </row>
     <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C5" s="47"/>
       <c r="D5" s="9"/>
@@ -2900,7 +3015,7 @@
     </row>
     <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="39" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B6" s="40"/>
       <c r="C6" s="40"/>
@@ -2909,23 +3024,23 @@
     </row>
     <row r="7" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C7" s="45" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C8" s="46"/>
       <c r="D8" s="6"/>
@@ -2933,10 +3048,10 @@
     </row>
     <row r="9" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C9" s="47"/>
       <c r="D9" s="6"/>
@@ -2944,7 +3059,7 @@
     </row>
     <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="39" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B10" s="40"/>
       <c r="C10" s="40"/>
@@ -2953,22 +3068,22 @@
     </row>
     <row r="11" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C11" s="48" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="49"/>
@@ -2977,7 +3092,7 @@
     </row>
     <row r="13" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="49"/>
@@ -2986,7 +3101,7 @@
     </row>
     <row r="14" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="50"/>
@@ -2995,7 +3110,7 @@
     </row>
     <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="39" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B15" s="40"/>
       <c r="C15" s="40"/>
@@ -3004,24 +3119,24 @@
     </row>
     <row r="16" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -3030,7 +3145,7 @@
     </row>
     <row r="18" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -3039,7 +3154,7 @@
     </row>
     <row r="19" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="39" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B19" s="40"/>
       <c r="C19" s="40"/>
@@ -3051,10 +3166,10 @@
         <v>7</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -3070,7 +3185,7 @@
     </row>
     <row r="22" spans="1:10" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>2</v>
@@ -3082,7 +3197,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -3092,7 +3207,7 @@
     </row>
     <row r="23" spans="1:10" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
@@ -3101,61 +3216,61 @@
     </row>
     <row r="24" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
     </row>
     <row r="26" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
     </row>
     <row r="27" spans="1:10" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="8" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="51" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
@@ -3164,90 +3279,90 @@
     </row>
     <row r="29" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
     </row>
     <row r="30" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
     </row>
     <row r="31" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
     </row>
     <row r="33" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C33" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
     </row>
     <row r="34" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
     </row>
     <row r="35" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>3</v>
@@ -3257,7 +3372,7 @@
     </row>
     <row r="36" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="52" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B36" s="53"/>
       <c r="C36" s="53"/>
@@ -3266,23 +3381,23 @@
     </row>
     <row r="37" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C37" s="48" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C38" s="49"/>
       <c r="D38" s="1"/>
@@ -3290,10 +3405,10 @@
     </row>
     <row r="39" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C39" s="49"/>
       <c r="D39" s="1"/>
@@ -3301,10 +3416,10 @@
     </row>
     <row r="40" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C40" s="50"/>
       <c r="D40" s="1"/>
@@ -3312,7 +3427,7 @@
     </row>
     <row r="41" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>2</v>
@@ -3324,28 +3439,28 @@
         <v>1</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C42" s="48" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C43" s="49"/>
       <c r="D43" s="1"/>
@@ -3353,10 +3468,10 @@
     </row>
     <row r="44" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C44" s="49"/>
       <c r="D44" s="1"/>
@@ -3364,10 +3479,10 @@
     </row>
     <row r="45" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C45" s="50"/>
       <c r="D45" s="1"/>
@@ -3375,7 +3490,7 @@
     </row>
     <row r="46" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="42" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B46" s="43"/>
       <c r="C46" s="43"/>
@@ -3384,26 +3499,26 @@
     </row>
     <row r="47" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="11" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -3435,10 +3550,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P38"/>
+  <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3447,191 +3562,233 @@
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
     <col min="3" max="3" width="83.109375" style="24" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="54" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B1" s="54"/>
       <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
+      <c r="D1" s="61" t="s">
+        <v>190</v>
+      </c>
+      <c r="E1" s="61" t="s">
+        <v>191</v>
+      </c>
       <c r="H1" t="s">
-        <v>183</v>
-      </c>
-      <c r="K1" t="s">
-        <v>200</v>
-      </c>
-      <c r="L1" t="s">
-        <v>201</v>
-      </c>
-      <c r="M1" t="s">
-        <v>202</v>
-      </c>
-      <c r="N1" t="s">
-        <v>203</v>
+        <v>169</v>
+      </c>
+      <c r="K1" s="64" t="s">
+        <v>172</v>
+      </c>
+      <c r="L1" s="63" t="s">
+        <v>173</v>
+      </c>
+      <c r="M1" s="66" t="s">
+        <v>174</v>
+      </c>
+      <c r="N1" s="65" t="s">
+        <v>175</v>
+      </c>
+      <c r="O1" s="36" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="16" t="s">
-        <v>93</v>
+      <c r="A2" s="67" t="s">
+        <v>87</v>
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="22" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D2" s="26">
         <v>19.96</v>
       </c>
+      <c r="E2" s="26">
+        <v>399.2</v>
+      </c>
+      <c r="F2" s="57"/>
       <c r="H2" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="K2">
         <v>285.2</v>
       </c>
       <c r="L2">
-        <v>982.96</v>
+        <v>863.2</v>
       </c>
       <c r="M2">
         <v>520</v>
       </c>
       <c r="N2">
-        <v>40.72</v>
-      </c>
-      <c r="O2" t="s">
-        <v>204</v>
+        <v>151.09</v>
+      </c>
+      <c r="O2">
+        <v>172</v>
+      </c>
+      <c r="P2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="16" t="s">
-        <v>129</v>
+      <c r="A3" s="67" t="s">
+        <v>122</v>
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="31" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D3" s="26">
         <f>1.2*2</f>
         <v>2.4</v>
       </c>
-      <c r="H3" t="s">
-        <v>184</v>
-      </c>
+      <c r="E3" s="26">
+        <v>48</v>
+      </c>
+      <c r="F3" s="57"/>
       <c r="K3">
         <v>9</v>
       </c>
       <c r="L3" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="M3">
         <v>44.61</v>
       </c>
       <c r="N3" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="O3" t="s">
-        <v>205</v>
+        <v>171</v>
+      </c>
+      <c r="P3" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="16" t="s">
-        <v>95</v>
+      <c r="A4" s="67" t="s">
+        <v>89</v>
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="22" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D4" s="26">
         <v>2.36</v>
       </c>
+      <c r="E4" s="26">
+        <v>47.2</v>
+      </c>
+      <c r="F4" s="57"/>
+      <c r="J4" s="36" t="s">
+        <v>204</v>
+      </c>
       <c r="K4">
-        <f>SUM(K2:K3)</f>
-        <v>294.2</v>
-      </c>
-      <c r="L4">
-        <f>L2</f>
-        <v>982.96</v>
-      </c>
-      <c r="M4">
-        <f>SUM(M2:M3)</f>
-        <v>564.61</v>
-      </c>
-      <c r="N4">
-        <f>N2</f>
-        <v>40.72</v>
+        <v>-64.8</v>
       </c>
       <c r="O4">
-        <f>SUM(K4:N4)</f>
-        <v>1882.49</v>
+        <f>SUM(K2:O2)+K4</f>
+        <v>1926.69</v>
       </c>
       <c r="P4" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="16" t="s">
-        <v>97</v>
+      <c r="A5" s="67" t="s">
+        <v>91</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="22" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D5" s="26">
         <v>3.16</v>
       </c>
-      <c r="N5">
-        <f>O4/20</f>
-        <v>94.124499999999998</v>
-      </c>
-      <c r="O5" t="s">
-        <v>207</v>
+      <c r="E5" s="26">
+        <v>63.2</v>
+      </c>
+      <c r="F5" s="57"/>
+      <c r="O5">
+        <f>K3+M3</f>
+        <v>53.61</v>
+      </c>
+      <c r="P5" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="58" t="s">
-        <v>99</v>
-      </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="60" t="s">
-        <v>98</v>
-      </c>
-      <c r="D6" s="61">
-        <v>10.36</v>
-      </c>
-      <c r="E6" s="38" t="s">
+      <c r="A6" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="58"/>
+      <c r="C6" s="59" t="s">
         <v>185</v>
       </c>
-      <c r="F6">
-        <v>10.36</v>
+      <c r="D6" s="60">
+        <v>0</v>
+      </c>
+      <c r="E6" s="26">
+        <v>0</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="O6">
+        <f>O4+O5</f>
+        <v>1980.3</v>
+      </c>
+      <c r="P6" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="16" t="s">
-        <v>101</v>
+      <c r="A7" s="67" t="s">
+        <v>94</v>
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="22" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D7" s="26">
         <v>0.36</v>
       </c>
+      <c r="E7" s="26">
+        <v>7.2</v>
+      </c>
+      <c r="F7" s="57"/>
+      <c r="O7">
+        <f>O6/20</f>
+        <v>99.015000000000001</v>
+      </c>
+      <c r="P7" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="8" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="16" t="s">
-        <v>103</v>
+      <c r="A8" s="67" t="s">
+        <v>96</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="22" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D8" s="26">
         <v>1</v>
       </c>
+      <c r="E8" s="26">
+        <v>20</v>
+      </c>
+      <c r="F8" s="57"/>
     </row>
     <row r="9" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="67" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="21"/>
@@ -3641,391 +3798,516 @@
       <c r="D9" s="26">
         <v>10.36</v>
       </c>
+      <c r="E9" s="26">
+        <v>207.2</v>
+      </c>
+      <c r="F9" s="57"/>
     </row>
     <row r="10" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="71" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="21"/>
       <c r="C10" s="22" t="s">
-        <v>11</v>
+        <v>184</v>
       </c>
       <c r="D10" s="26">
-        <v>30</v>
-      </c>
-      <c r="E10" t="s">
-        <v>192</v>
-      </c>
-      <c r="F10">
-        <v>4</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="E10" s="26">
+        <f>26*20</f>
+        <v>520</v>
+      </c>
+      <c r="F10" s="57"/>
     </row>
     <row r="11" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="16" t="s">
-        <v>154</v>
+      <c r="A11" s="70" t="s">
+        <v>175</v>
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="31" t="s">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="D11" s="26">
-        <f>3.16*3</f>
-        <v>9.48</v>
-      </c>
-      <c r="E11" t="s">
+        <f>(7.89*4)/20</f>
+        <v>1.5779999999999998</v>
+      </c>
+      <c r="E11" s="26">
+        <f>7.89*4</f>
+        <v>31.56</v>
+      </c>
+      <c r="F11" s="57"/>
+      <c r="K11" s="57"/>
+    </row>
+    <row r="12" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="70" t="s">
+        <v>175</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="D12" s="26">
+        <f>7.99/20</f>
+        <v>0.39950000000000002</v>
+      </c>
+      <c r="E12" s="26">
+        <f>7.99</f>
+        <v>7.99</v>
+      </c>
+      <c r="F12" s="57"/>
+      <c r="K12" s="57"/>
+    </row>
+    <row r="13" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="70" t="s">
+        <v>194</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="D13" s="26">
+        <f>(8.99*7)/20</f>
+        <v>3.1465000000000001</v>
+      </c>
+      <c r="E13" s="26">
+        <f>8.99*7</f>
+        <v>62.93</v>
+      </c>
+      <c r="F13" s="57"/>
+      <c r="K13" s="57"/>
+    </row>
+    <row r="14" spans="1:16" ht="18" x14ac:dyDescent="0.3">
+      <c r="C14" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="27">
+        <f>SUM(D2:D13)</f>
+        <v>70.724000000000004</v>
+      </c>
+      <c r="E14" s="27">
+        <f>SUM(E2:E13)</f>
+        <v>1414.48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="61" t="s">
+        <v>190</v>
+      </c>
+      <c r="E15" s="61" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" s="20"/>
+      <c r="C16" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" s="26">
+        <v>2.36</v>
+      </c>
+      <c r="E16" s="26">
+        <v>47.2</v>
+      </c>
+      <c r="F16" s="57"/>
+    </row>
+    <row r="17" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="69" t="s">
         <v>186</v>
       </c>
-      <c r="G11" t="s">
-        <v>195</v>
-      </c>
-      <c r="I11">
-        <v>19.96</v>
-      </c>
-      <c r="J11">
-        <f>I11/4</f>
-        <v>4.99</v>
-      </c>
-      <c r="K11" s="57"/>
-    </row>
-    <row r="12" spans="1:16" ht="18" x14ac:dyDescent="0.3">
-      <c r="C12" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="D12" s="27">
-        <f>SUM(D2:D11)</f>
-        <v>89.44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="54" t="s">
-        <v>106</v>
-      </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-    </row>
-    <row r="14" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="16" t="s">
+      <c r="B17" s="34"/>
+      <c r="C17" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="D17" s="26">
+        <v>0.72</v>
+      </c>
+      <c r="E17" s="26">
+        <v>12.44</v>
+      </c>
+      <c r="F17" s="57">
+        <f t="shared" ref="F17:F21" si="0">D17*20</f>
+        <v>14.399999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="D14" s="26">
-        <v>2.36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="26">
-        <v>4.76</v>
-      </c>
-      <c r="E15" t="s">
-        <v>187</v>
-      </c>
-      <c r="F15">
-        <f>4.76-1.56</f>
-        <v>3.1999999999999997</v>
-      </c>
-      <c r="G15" t="s">
-        <v>196</v>
-      </c>
-      <c r="I15">
-        <v>1.56</v>
-      </c>
-      <c r="K15" t="s">
-        <v>198</v>
-      </c>
-      <c r="L15">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="D16" s="26">
+      <c r="B18" s="33"/>
+      <c r="C18" s="62" t="s">
+        <v>160</v>
+      </c>
+      <c r="D18" s="26">
         <f>0.27*2</f>
         <v>0.54</v>
       </c>
-      <c r="G16" s="19"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="19"/>
-    </row>
-    <row r="17" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="32" t="s">
-        <v>170</v>
-      </c>
-      <c r="D17" s="26">
+      <c r="E18" s="26">
+        <v>7.32</v>
+      </c>
+      <c r="F18" s="57">
+        <f t="shared" si="0"/>
+        <v>10.8</v>
+      </c>
+      <c r="G18" s="19"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="19"/>
+    </row>
+    <row r="19" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="69" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" s="34"/>
+      <c r="C19" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="D19" s="26">
         <f>0.34*3</f>
         <v>1.02</v>
       </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="19"/>
-    </row>
-    <row r="18" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="D18" s="26">
+      <c r="E19" s="26">
+        <v>19.62</v>
+      </c>
+      <c r="F19" s="57">
+        <f t="shared" si="0"/>
+        <v>20.399999999999999</v>
+      </c>
+      <c r="G19" s="19"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="19"/>
+    </row>
+    <row r="20" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" s="33"/>
+      <c r="C20" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="26">
         <f>0.16*2</f>
         <v>0.32</v>
       </c>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-    </row>
-    <row r="19" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="D19" s="26">
+      <c r="E20" s="26">
+        <v>5.2</v>
+      </c>
+      <c r="F20" s="57">
+        <f t="shared" si="0"/>
+        <v>6.4</v>
+      </c>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+    </row>
+    <row r="21" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="69" t="s">
+        <v>128</v>
+      </c>
+      <c r="B21" s="34"/>
+      <c r="C21" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" s="26">
         <f>0.18*3</f>
         <v>0.54</v>
       </c>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-    </row>
-    <row r="20" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="D20" s="26">
+      <c r="E21" s="26">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="F21" s="57">
+        <f t="shared" si="0"/>
+        <v>10.8</v>
+      </c>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+    </row>
+    <row r="22" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="D22" s="26">
         <f>108/50</f>
         <v>2.16</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="18" x14ac:dyDescent="0.3">
-      <c r="C21" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="D21" s="27">
-        <f>SUM(D14:D20)</f>
-        <v>11.7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="54" t="s">
-        <v>105</v>
-      </c>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-    </row>
-    <row r="23" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="D23" s="26">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="26">
-        <v>11.16</v>
-      </c>
-      <c r="E24" t="s">
-        <v>188</v>
-      </c>
-      <c r="H24" t="s">
-        <v>197</v>
-      </c>
-      <c r="I24">
-        <v>7.54</v>
+      <c r="E22" s="26">
+        <v>43.2</v>
+      </c>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57">
+        <f>108-E22</f>
+        <v>64.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="18" x14ac:dyDescent="0.3">
+      <c r="C23" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="27">
+        <f>SUM(D16:D22)</f>
+        <v>7.660000000000001</v>
+      </c>
+      <c r="E23" s="27">
+        <f>SUM(E16:E22)</f>
+        <v>143.20000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="61" t="s">
+        <v>190</v>
+      </c>
+      <c r="E24" s="61" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="16" t="s">
-        <v>16</v>
+      <c r="A25" s="67" t="s">
+        <v>121</v>
       </c>
       <c r="B25" s="21"/>
       <c r="C25" s="22" t="s">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="D25" s="26">
+        <v>1.2</v>
+      </c>
+      <c r="E25" s="26">
+        <v>24</v>
+      </c>
+      <c r="F25" s="57"/>
+    </row>
+    <row r="26" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="69" t="s">
+        <v>188</v>
+      </c>
+      <c r="B26" s="21"/>
+      <c r="C26" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="D26" s="26">
+        <v>7.54</v>
+      </c>
+      <c r="E26" s="26">
+        <v>124.4</v>
+      </c>
+      <c r="F26" s="57">
+        <f>D26*20</f>
+        <v>150.80000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="70" t="s">
+        <v>175</v>
+      </c>
+      <c r="B27" s="21"/>
+      <c r="C27" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="D27" s="26">
+        <f>(20.99*2)/20</f>
+        <v>2.0989999999999998</v>
+      </c>
+      <c r="E27" s="26">
+        <f>20.99*2</f>
+        <v>41.98</v>
+      </c>
+      <c r="G27">
         <v>7.16</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="18" x14ac:dyDescent="0.3">
-      <c r="C26" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="D26" s="27">
-        <f>SUM(D23:D25)</f>
-        <v>19.52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="54" t="s">
-        <v>158</v>
-      </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-    </row>
-    <row r="28" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="D28" s="26">
+      <c r="H27" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.3">
+      <c r="C28" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="27">
+        <f>SUM(D25:D27)</f>
+        <v>10.839</v>
+      </c>
+      <c r="E28" s="27">
+        <f>SUM(E25:E27)</f>
+        <v>190.38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="61" t="s">
+        <v>190</v>
+      </c>
+      <c r="E29" s="61" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="71" t="s">
+        <v>154</v>
+      </c>
+      <c r="B30" s="18"/>
+      <c r="C30" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="D30" s="26">
         <f>0.65*4</f>
         <v>2.6</v>
       </c>
-      <c r="E28">
+      <c r="E30" s="26">
+        <f>D30*20</f>
+        <v>52</v>
+      </c>
+      <c r="F30">
         <v>1.82</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="D29" s="26">
-        <v>1.55</v>
-      </c>
-      <c r="E29">
-        <v>4.55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="D30" s="26">
-        <v>3.3</v>
-      </c>
-      <c r="E30">
-        <v>1.885</v>
-      </c>
+      <c r="G30" s="57"/>
     </row>
     <row r="31" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="16" t="s">
-        <v>166</v>
+      <c r="A31" s="71" t="s">
+        <v>155</v>
       </c>
       <c r="B31" s="18"/>
       <c r="C31" s="22" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="D31" s="26">
+        <v>1.55</v>
+      </c>
+      <c r="E31" s="26">
+        <f t="shared" ref="E31:E33" si="1">D31*20</f>
+        <v>31</v>
+      </c>
+      <c r="F31">
+        <v>4.55</v>
+      </c>
+      <c r="G31" s="57"/>
+    </row>
+    <row r="32" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="71" t="s">
+        <v>156</v>
+      </c>
+      <c r="B32" s="18"/>
+      <c r="C32" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="D32" s="26">
+        <v>3.3</v>
+      </c>
+      <c r="E32" s="26">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="F32">
+        <v>1.885</v>
+      </c>
+      <c r="G32" s="57"/>
+    </row>
+    <row r="33" spans="1:7" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="71" t="s">
+        <v>157</v>
+      </c>
+      <c r="B33" s="18"/>
+      <c r="C33" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="D33" s="26">
         <v>1.1499999999999999</v>
       </c>
-      <c r="E31">
+      <c r="E33" s="26">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="F33">
         <v>2.08</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C32" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="D32" s="27">
-        <f>SUM(D28:D31)</f>
+      <c r="G33" s="57"/>
+    </row>
+    <row r="34" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="C34" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" s="27">
+        <f>SUM(D30:D33)</f>
         <v>8.6</v>
       </c>
-      <c r="E32">
-        <f>SUM(E28:E31)</f>
+      <c r="E34" s="27">
+        <f>SUM(E30:E33)</f>
+        <v>172</v>
+      </c>
+      <c r="F34">
+        <f>SUM(F30:F33)</f>
         <v>10.335000000000001</v>
       </c>
-      <c r="F32" s="57"/>
-    </row>
-    <row r="33" spans="3:6" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C33" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="D33" s="29">
-        <f>SUM(D12,D21,D26,D32)</f>
-        <v>129.26</v>
-      </c>
-      <c r="F33">
-        <f>SUM(F2:F32)</f>
-        <v>17.559999999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="3:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D34" s="28">
-        <f>D33-F33</f>
-        <v>111.69999999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="3:6" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C35" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="D35" s="27">
-        <f>D34*19</f>
-        <v>2122.2999999999997</v>
-      </c>
-    </row>
-    <row r="36" spans="3:6" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="D36" s="28">
-        <f>3000-D35</f>
-        <v>877.70000000000027</v>
-      </c>
-    </row>
-    <row r="38" spans="3:6" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="24" t="s">
-        <v>191</v>
+        <v>203</v>
+      </c>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27">
+        <f>O5</f>
+        <v>53.61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C36" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="D36" s="29">
+        <f>SUM(D14,D23,D28,D34)</f>
+        <v>97.822999999999993</v>
+      </c>
+      <c r="E36" s="29">
+        <f>SUM(E14,E23,E28,E34,E35)</f>
+        <v>1973.6699999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="38" spans="1:7" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C38" s="72" t="s">
+        <v>205</v>
+      </c>
+      <c r="D38" s="73">
+        <f>3000-E36</f>
+        <v>1026.3300000000002</v>
+      </c>
+      <c r="E38" s="57"/>
+    </row>
+    <row r="39" spans="1:7" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C39" s="72" t="s">
+        <v>197</v>
+      </c>
+      <c r="D39" s="73">
+        <f>E36/20</f>
+        <v>98.683499999999995</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A29:C29"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="https://www.sparkfun.com/products/9815"/>
@@ -4038,35 +4320,38 @@
     <hyperlink ref="A9" r:id="rId8" display="https://www.sparkfun.com/products/13301"/>
     <hyperlink ref="A10" r:id="rId9" display="https://www.sparkfun.com/products/13787"/>
     <hyperlink ref="A11" r:id="rId10"/>
-    <hyperlink ref="A14" r:id="rId11" display="https://www.sparkfun.com/products/12877"/>
-    <hyperlink ref="A15" r:id="rId12" display="https://www.sparkfun.com/products/12567"/>
-    <hyperlink ref="A23" r:id="rId13" display="https://www.sparkfun.com/products/13685"/>
-    <hyperlink ref="A24" r:id="rId14" display="https://www.sparkfun.com/products/12728"/>
-    <hyperlink ref="A25" r:id="rId15" display="https://www.sparkfun.com/products/9065"/>
-    <hyperlink ref="A20" r:id="rId16"/>
-    <hyperlink ref="A16" r:id="rId17"/>
-    <hyperlink ref="A17" r:id="rId18"/>
-    <hyperlink ref="A19" r:id="rId19"/>
-    <hyperlink ref="A18" r:id="rId20"/>
+    <hyperlink ref="A16" r:id="rId11" display="https://www.sparkfun.com/products/12877"/>
+    <hyperlink ref="A17" r:id="rId12" display="ROB-12567"/>
+    <hyperlink ref="A25" r:id="rId13" display="https://www.sparkfun.com/products/13685"/>
+    <hyperlink ref="A26" r:id="rId14"/>
+    <hyperlink ref="A27" r:id="rId15"/>
+    <hyperlink ref="A22" r:id="rId16"/>
+    <hyperlink ref="A18" r:id="rId17"/>
+    <hyperlink ref="A19" r:id="rId18"/>
+    <hyperlink ref="A21" r:id="rId19"/>
+    <hyperlink ref="A20" r:id="rId20"/>
+    <hyperlink ref="A12" r:id="rId21"/>
+    <hyperlink ref="A13" r:id="rId22"/>
+    <hyperlink ref="H27" r:id="rId23" display="https://www.sparkfun.com/products/9065"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="87" orientation="landscape" r:id="rId21"/>
+  <pageSetup scale="87" orientation="landscape" r:id="rId24"/>
   <headerFooter>
     <oddHeader>&amp;LIntel Maker Nation Presents&amp;CA Friends and Family Event&amp;RApril 2016</oddHeader>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="23" max="3" man="1"/>
+    <brk id="25" max="3" man="1"/>
   </rowBreaks>
-  <drawing r:id="rId22"/>
+  <drawing r:id="rId25"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4083,82 +4368,82 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D1" s="55" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E1" s="55" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="H1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="I1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D2" s="55" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E2" s="55" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="G2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="H2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="I2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D3" s="55" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E3" s="55" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F3" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="G3" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="H3" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="I3" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" t="s">
         <v>116</v>
       </c>
-      <c r="B4" t="s">
-        <v>123</v>
-      </c>
       <c r="C4" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D4" s="55">
         <v>2</v>
@@ -4167,10 +4452,10 @@
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="G4" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="I4">
         <v>7</v>
@@ -4178,12 +4463,12 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D5" s="55"/>
       <c r="E5" s="55"/>
       <c r="H5" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -4192,20 +4477,20 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="D7" s="55"/>
       <c r="E7" s="55"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B8" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="D8" s="55"/>
       <c r="E8" s="55"/>
@@ -4216,46 +4501,46 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D10" s="55"/>
       <c r="E10" s="55"/>
     </row>
     <row r="11" spans="1:9" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="36" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="D11" s="56" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E11" s="56" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
       <c r="D12" s="36"/>
       <c r="E12" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F12" s="36"/>
       <c r="G12" s="36"/>
@@ -4264,127 +4549,161 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E13" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C14" t="s">
-        <v>140</v>
-      </c>
-      <c r="D14">
+        <v>133</v>
+      </c>
+      <c r="D14" t="s">
+        <v>178</v>
+      </c>
+      <c r="F14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" t="s">
+        <v>133</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D17" t="s">
+        <v>179</v>
+      </c>
+      <c r="F17" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" t="s">
+        <v>134</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>139</v>
+      </c>
+      <c r="B20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" t="s">
+        <v>135</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="F20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21" t="s">
+        <v>135</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="F21" s="37" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22" t="s">
+        <v>183</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>137</v>
+      </c>
+      <c r="C24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25">
         <v>3</v>
-      </c>
-      <c r="F14" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>115</v>
-      </c>
-      <c r="B15" t="s">
-        <v>144</v>
-      </c>
-      <c r="C15" t="s">
-        <v>141</v>
-      </c>
-      <c r="D15">
-        <v>4</v>
-      </c>
-      <c r="F15" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>146</v>
-      </c>
-      <c r="B16" t="s">
-        <v>144</v>
-      </c>
-      <c r="C16" t="s">
-        <v>142</v>
-      </c>
-      <c r="D16">
-        <v>6</v>
-      </c>
-      <c r="F16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>144</v>
-      </c>
-      <c r="C18" t="s">
-        <v>172</v>
-      </c>
-      <c r="D18" s="37" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>143</v>
-      </c>
-      <c r="C19" t="s">
-        <v>173</v>
-      </c>
-      <c r="D19" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>143</v>
-      </c>
-      <c r="C20" t="s">
-        <v>175</v>
-      </c>
-      <c r="D20" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>143</v>
-      </c>
-      <c r="C21" t="s">
-        <v>176</v>
-      </c>
-      <c r="D21" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>144</v>
-      </c>
-      <c r="C22" t="s">
-        <v>175</v>
-      </c>
-      <c r="D22" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>144</v>
-      </c>
-      <c r="C23" t="s">
-        <v>176</v>
-      </c>
-      <c r="D23" t="s">
-        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/NMMakerFnFEvent_BOM.xlsx
+++ b/NMMakerFnFEvent_BOM.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="201">
   <si>
     <t>Owner</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>DEV-13787</t>
-  </si>
-  <si>
-    <t>ROB-09065</t>
   </si>
   <si>
     <t>Header</t>
@@ -488,9 +485,6 @@
 ** Order this item per 50 Kits</t>
   </si>
   <si>
-    <t>Intel Maker Nation Device Depot Racer Kit (Beginner, Intermediate and Advanced)</t>
-  </si>
-  <si>
     <t>IMR Provided 3D Printed Parts</t>
   </si>
   <si>
@@ -559,12 +553,6 @@
     <t>Need to have 20 kits</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>Mouser</t>
   </si>
   <si>
@@ -577,12 +565,6 @@
     <t>Amazon</t>
   </si>
   <si>
-    <t>Costs</t>
-  </si>
-  <si>
-    <t>Shipping</t>
-  </si>
-  <si>
     <t>5 -&gt; 3</t>
   </si>
   <si>
@@ -602,9 +584,6 @@
   </si>
   <si>
     <t>Arduino 101 from BP Store</t>
-  </si>
-  <si>
-    <t>Wheel Encoder Kit @10.36</t>
   </si>
   <si>
     <t xml:space="preserve"> 810-PS1240P02BT</t>
@@ -646,33 +625,40 @@
 Qty: need 1 / kit</t>
   </si>
   <si>
-    <t>Per kit cost at 20 unit bulk order</t>
-  </si>
-  <si>
     <t>IMR 
 3D Prints for 20 kits</t>
   </si>
   <si>
-    <t>S&amp;H</t>
-  </si>
-  <si>
     <t>Sub-Totals</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>per kit cost</t>
-  </si>
-  <si>
-    <t>Shipping &amp; Handling</t>
   </si>
   <si>
     <t>3wire cable
  not all used with just 20</t>
   </si>
   <si>
-    <t>racetrack and spares Budget</t>
+    <t>Spares</t>
+  </si>
+  <si>
+    <t>Wheel Encoder Kit @10.36  (only 19 ordered OR does not want this)</t>
+  </si>
+  <si>
+    <t>Back Ordered</t>
+  </si>
+  <si>
+    <t>Invoice totals</t>
+  </si>
+  <si>
+    <t>Racetrack Budget</t>
+  </si>
+  <si>
+    <t>NM racetrack Budget</t>
+  </si>
+  <si>
+    <t>Bulk of 20 
+per unit cost</t>
+  </si>
+  <si>
+    <t>Intel Maker Nation NM Racer Kit (Beginner, Intermediate and Advanced)</t>
   </si>
 </sst>
 </file>
@@ -682,7 +668,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -759,19 +745,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <u/>
-      <sz val="11"/>
+      <sz val="14"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <u/>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="14"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Intel Clear Light"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -818,7 +820,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1005,37 +1007,14 @@
         <color auto="1"/>
       </diagonal>
     </border>
-    <border diagonalUp="1" diagonalDown="1">
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal style="dashed">
-        <color indexed="64"/>
-      </diagonal>
-    </border>
-    <border diagonalUp="1" diagonalDown="1">
+    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal style="dashed">
-        <color indexed="64"/>
-      </diagonal>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="3">
@@ -1043,7 +1022,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1077,9 +1056,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1124,67 +1100,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1195,23 +1115,113 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -1987,53 +1997,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>423545</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>4445</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="Picture 36" descr="Product Image"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="11094720" y="20314920"/>
-          <a:ext cx="873125" cy="873125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
       <xdr:row>17</xdr:row>
@@ -2053,7 +2016,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2108,7 +2071,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2163,7 +2126,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2218,7 +2181,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2273,7 +2236,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2328,7 +2291,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2366,7 +2329,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2404,7 +2367,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2442,7 +2405,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2480,7 +2443,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2518,7 +2481,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2556,7 +2519,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2594,7 +2557,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2649,7 +2612,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2950,7 +2913,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>2</v>
@@ -2962,181 +2925,181 @@
         <v>1</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41"/>
+      <c r="A2" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="48"/>
     </row>
     <row r="3" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="45" t="s">
-        <v>15</v>
+        <v>23</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>14</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="48" t="s">
-        <v>55</v>
+      <c r="E3" s="55" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="46"/>
+        <v>23</v>
+      </c>
+      <c r="C4" s="53"/>
       <c r="D4" s="9"/>
-      <c r="E4" s="49"/>
+      <c r="E4" s="56"/>
     </row>
     <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="47"/>
+        <v>23</v>
+      </c>
+      <c r="C5" s="54"/>
       <c r="D5" s="9"/>
-      <c r="E5" s="50"/>
+      <c r="E5" s="57"/>
     </row>
     <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="41"/>
+      <c r="A6" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="48"/>
     </row>
     <row r="7" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="45" t="s">
-        <v>56</v>
+      <c r="C7" s="52" t="s">
+        <v>55</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="46"/>
+        <v>19</v>
+      </c>
+      <c r="C8" s="53"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="47"/>
+        <v>20</v>
+      </c>
+      <c r="C9" s="54"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="41"/>
+      <c r="A10" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="48"/>
     </row>
     <row r="11" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="48" t="s">
-        <v>83</v>
+        <v>56</v>
+      </c>
+      <c r="C11" s="55" t="s">
+        <v>82</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" s="6"/>
-      <c r="C12" s="49"/>
+      <c r="C12" s="56"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" s="6"/>
-      <c r="C13" s="49"/>
+      <c r="C13" s="56"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" s="6"/>
-      <c r="C14" s="50"/>
+      <c r="C14" s="57"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="41"/>
+      <c r="A15" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="48"/>
     </row>
     <row r="16" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -3145,7 +3108,7 @@
     </row>
     <row r="18" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -3153,23 +3116,23 @@
       <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="41"/>
+      <c r="A19" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="48"/>
     </row>
     <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>64</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -3185,7 +3148,7 @@
     </row>
     <row r="22" spans="1:10" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>2</v>
@@ -3197,7 +3160,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -3207,7 +3170,7 @@
     </row>
     <row r="23" spans="1:10" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
@@ -3216,153 +3179,153 @@
     </row>
     <row r="24" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
     </row>
     <row r="26" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
     </row>
     <row r="27" spans="1:10" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
+      <c r="A28" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
     </row>
     <row r="29" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="10" t="s">
-        <v>39</v>
-      </c>
       <c r="C29" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
     </row>
     <row r="30" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
     </row>
     <row r="31" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
     </row>
     <row r="33" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="C33" t="s">
         <v>68</v>
-      </c>
-      <c r="C33" t="s">
-        <v>69</v>
       </c>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
     </row>
     <row r="34" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
     </row>
     <row r="35" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="8" t="s">
         <v>70</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>71</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>3</v>
@@ -3371,63 +3334,63 @@
       <c r="E35" s="6"/>
     </row>
     <row r="36" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="53"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
+      <c r="A36" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="60"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
     </row>
     <row r="37" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" s="48" t="s">
-        <v>75</v>
+      <c r="C37" s="55" t="s">
+        <v>74</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C38" s="49"/>
+        <v>43</v>
+      </c>
+      <c r="C38" s="56"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C39" s="49"/>
+        <v>84</v>
+      </c>
+      <c r="C39" s="56"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C40" s="50"/>
+        <v>83</v>
+      </c>
+      <c r="C40" s="57"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>2</v>
@@ -3439,86 +3402,86 @@
         <v>1</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42" s="48" t="s">
-        <v>75</v>
+      <c r="C42" s="55" t="s">
+        <v>74</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B43" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C43" s="49"/>
+      <c r="C43" s="56"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B44" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C44" s="49"/>
+      <c r="C44" s="56"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B45" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C45" s="50"/>
+      <c r="C45" s="57"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="B46" s="43"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="44"/>
+      <c r="A46" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" s="50"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="51"/>
     </row>
     <row r="47" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B47" s="11" t="s">
-        <v>78</v>
-      </c>
       <c r="C47" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B48" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B48" s="11" t="s">
-        <v>80</v>
-      </c>
       <c r="C48" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -3550,757 +3513,766 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P39"/>
+  <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35:E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="71.400000000000006" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" style="65" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="83.109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="83.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="27" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" style="72" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.109375" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" customWidth="1"/>
     <col min="10" max="10" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="54" t="s">
-        <v>100</v>
-      </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="61" t="s">
+      <c r="A1" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="F1" s="71" t="s">
+        <v>193</v>
+      </c>
+      <c r="H1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K1" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="L1" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="M1" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="N1" s="44" t="s">
+        <v>171</v>
+      </c>
+      <c r="O1" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="E1" s="61" t="s">
-        <v>191</v>
-      </c>
-      <c r="H1" t="s">
-        <v>169</v>
-      </c>
-      <c r="K1" s="64" t="s">
-        <v>172</v>
-      </c>
-      <c r="L1" s="63" t="s">
-        <v>173</v>
-      </c>
-      <c r="M1" s="66" t="s">
-        <v>174</v>
-      </c>
-      <c r="N1" s="65" t="s">
-        <v>175</v>
-      </c>
-      <c r="O1" s="36" t="s">
-        <v>198</v>
-      </c>
     </row>
     <row r="2" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="67" t="s">
-        <v>87</v>
-      </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="22" t="s">
+      <c r="A2" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="26">
+      <c r="B2" s="19"/>
+      <c r="C2" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="25">
         <v>19.96</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="25">
         <v>399.2</v>
       </c>
-      <c r="F2" s="57"/>
+      <c r="F2" s="73"/>
       <c r="H2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K2">
-        <v>285.2</v>
+        <v>293.12</v>
       </c>
       <c r="L2">
-        <v>863.2</v>
+        <f>920.16+236.52</f>
+        <v>1156.68</v>
       </c>
       <c r="M2">
-        <v>520</v>
+        <v>564.61</v>
       </c>
       <c r="N2">
-        <v>151.09</v>
+        <v>160.19999999999999</v>
       </c>
       <c r="O2">
         <v>172</v>
       </c>
       <c r="P2" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="67" t="s">
-        <v>122</v>
-      </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="D3" s="26">
+      <c r="A3" s="62" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="25">
         <f>1.2*2</f>
         <v>2.4</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3" s="25">
         <v>48</v>
       </c>
-      <c r="F3" s="57"/>
+      <c r="F3" s="73"/>
+      <c r="J3" s="35" t="s">
+        <v>192</v>
+      </c>
       <c r="K3">
-        <v>9</v>
-      </c>
-      <c r="L3" t="s">
-        <v>171</v>
-      </c>
-      <c r="M3">
-        <v>44.61</v>
-      </c>
-      <c r="N3" t="s">
-        <v>171</v>
-      </c>
-      <c r="O3" t="s">
-        <v>171</v>
+        <v>64.8</v>
+      </c>
+      <c r="O3">
+        <f>SUM(K2:O2)-K3</f>
+        <v>2281.81</v>
       </c>
       <c r="P3" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="62" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="25">
+        <v>2.36</v>
+      </c>
+      <c r="E4" s="25">
+        <v>47.2</v>
+      </c>
+      <c r="F4" s="73"/>
+      <c r="J4" t="s">
+        <v>197</v>
+      </c>
+      <c r="O4">
+        <f>3000-O3-K3</f>
+        <v>653.3900000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" s="26">
-        <v>2.36</v>
-      </c>
-      <c r="E4" s="26">
-        <v>47.2</v>
-      </c>
-      <c r="F4" s="57"/>
-      <c r="J4" s="36" t="s">
-        <v>204</v>
-      </c>
-      <c r="K4">
-        <v>-64.8</v>
-      </c>
-      <c r="O4">
-        <f>SUM(K2:O2)+K4</f>
-        <v>1926.69</v>
-      </c>
-      <c r="P4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="67" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" s="26">
+      <c r="D5" s="25">
         <v>3.16</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="25">
         <v>63.2</v>
       </c>
-      <c r="F5" s="57"/>
-      <c r="O5">
-        <f>K3+M3</f>
-        <v>53.61</v>
-      </c>
-      <c r="P5" t="s">
-        <v>199</v>
+      <c r="F5" s="73">
+        <v>3</v>
+      </c>
+      <c r="G5" s="25">
+        <v>72.680000000000007</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="69"/>
+      <c r="C6" s="70" t="s">
+        <v>194</v>
+      </c>
+      <c r="D6" s="78">
+        <v>10.36</v>
+      </c>
+      <c r="E6" s="77">
+        <v>196.84</v>
+      </c>
+      <c r="F6" s="74">
+        <v>3</v>
+      </c>
+      <c r="G6" s="77">
+        <v>227.92</v>
+      </c>
+      <c r="H6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="62" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="59" t="s">
-        <v>185</v>
-      </c>
-      <c r="D6" s="60">
-        <v>0</v>
-      </c>
-      <c r="E6" s="26">
-        <v>0</v>
-      </c>
-      <c r="F6" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="O6">
-        <f>O4+O5</f>
-        <v>1980.3</v>
-      </c>
-      <c r="P6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="67" t="s">
+      <c r="D7" s="25">
+        <v>0.36</v>
+      </c>
+      <c r="E7" s="25">
+        <v>7.2</v>
+      </c>
+      <c r="F7" s="73"/>
+    </row>
+    <row r="8" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" s="26">
-        <v>0.36</v>
-      </c>
-      <c r="E7" s="26">
-        <v>7.2</v>
-      </c>
-      <c r="F7" s="57"/>
-      <c r="O7">
-        <f>O6/20</f>
-        <v>99.015000000000001</v>
-      </c>
-      <c r="P7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="67" t="s">
-        <v>96</v>
-      </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="D8" s="26">
+      <c r="D8" s="25">
         <v>1</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="25">
         <v>20</v>
       </c>
-      <c r="F8" s="57"/>
+      <c r="F8" s="73"/>
     </row>
     <row r="9" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="22" t="s">
+      <c r="B9" s="20"/>
+      <c r="C9" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="25">
         <v>10.36</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="25">
         <v>207.2</v>
       </c>
-      <c r="F9" s="57"/>
+      <c r="F9" s="73">
+        <v>1</v>
+      </c>
+      <c r="G9" s="25">
+        <v>217.56</v>
+      </c>
     </row>
     <row r="10" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="D10" s="26">
+      <c r="B10" s="20"/>
+      <c r="C10" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="D10" s="25">
         <v>26</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="25">
         <f>26*20</f>
         <v>520</v>
       </c>
-      <c r="F10" s="57"/>
+      <c r="F10" s="73"/>
+      <c r="K10" s="39"/>
     </row>
     <row r="11" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="70" t="s">
-        <v>175</v>
-      </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="D11" s="26">
+      <c r="A11" s="64" t="s">
+        <v>171</v>
+      </c>
+      <c r="B11" s="17"/>
+      <c r="C11" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D11" s="25">
         <f>(7.89*4)/20</f>
         <v>1.5779999999999998</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="25">
         <f>7.89*4</f>
         <v>31.56</v>
       </c>
-      <c r="F11" s="57"/>
-      <c r="K11" s="57"/>
+      <c r="F11" s="73"/>
+      <c r="K11" s="39"/>
     </row>
     <row r="12" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="70" t="s">
-        <v>175</v>
-      </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="D12" s="26">
+      <c r="A12" s="64" t="s">
+        <v>171</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="D12" s="25">
         <f>7.99/20</f>
         <v>0.39950000000000002</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="25">
         <f>7.99</f>
         <v>7.99</v>
       </c>
-      <c r="F12" s="57"/>
-      <c r="K12" s="57"/>
+      <c r="F12" s="73"/>
+      <c r="K12" s="39"/>
     </row>
     <row r="13" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="70" t="s">
-        <v>194</v>
-      </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="31" t="s">
-        <v>195</v>
-      </c>
-      <c r="D13" s="26">
+      <c r="A13" s="64" t="s">
+        <v>187</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="D13" s="25">
         <f>(8.99*7)/20</f>
         <v>3.1465000000000001</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="25">
         <f>8.99*7</f>
         <v>62.93</v>
       </c>
-      <c r="F13" s="57"/>
-      <c r="K13" s="57"/>
-    </row>
-    <row r="14" spans="1:16" ht="18" x14ac:dyDescent="0.3">
-      <c r="C14" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="D14" s="27">
+      <c r="F13" s="73"/>
+    </row>
+    <row r="14" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="C14" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="26">
         <f>SUM(D2:D13)</f>
-        <v>70.724000000000004</v>
-      </c>
-      <c r="E14" s="27">
+        <v>81.084000000000003</v>
+      </c>
+      <c r="E14" s="26">
         <f>SUM(E2:E13)</f>
-        <v>1414.48</v>
-      </c>
+        <v>1611.3200000000002</v>
+      </c>
+      <c r="F14" s="73"/>
     </row>
     <row r="15" spans="1:16" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="54" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="61" t="s">
-        <v>190</v>
-      </c>
-      <c r="E15" s="61" t="s">
-        <v>191</v>
-      </c>
+      <c r="A15" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="61"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="F15" s="73"/>
     </row>
     <row r="16" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="67" t="s">
-        <v>119</v>
-      </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="22" t="s">
+      <c r="A16" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="D16" s="26">
+      <c r="B16" s="19"/>
+      <c r="C16" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" s="25">
         <v>2.36</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="25">
         <v>47.2</v>
       </c>
-      <c r="F16" s="57"/>
+      <c r="F16" s="73">
+        <v>3</v>
+      </c>
+      <c r="G16" s="25">
+        <v>54.28</v>
+      </c>
     </row>
     <row r="17" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="69" t="s">
-        <v>186</v>
-      </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="D17" s="26">
+      <c r="A17" s="66" t="s">
+        <v>179</v>
+      </c>
+      <c r="B17" s="33"/>
+      <c r="C17" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="D17" s="25">
         <v>0.72</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E17" s="25">
         <v>12.44</v>
       </c>
-      <c r="F17" s="57">
-        <f t="shared" ref="F17:F21" si="0">D17*20</f>
-        <v>14.399999999999999</v>
+      <c r="F17" s="75">
+        <v>3</v>
+      </c>
+      <c r="G17" s="25">
+        <v>14.31</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="69" t="s">
-        <v>126</v>
-      </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="62" t="s">
-        <v>160</v>
-      </c>
-      <c r="D18" s="26">
+      <c r="A18" s="66" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" s="32"/>
+      <c r="C18" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="D18" s="25">
         <f>0.27*2</f>
         <v>0.54</v>
       </c>
-      <c r="E18" s="26">
+      <c r="E18" s="25">
         <v>7.32</v>
       </c>
-      <c r="F18" s="57">
-        <f t="shared" si="0"/>
-        <v>10.8</v>
-      </c>
-      <c r="G18" s="19"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="19"/>
+      <c r="F18" s="75">
+        <v>6</v>
+      </c>
+      <c r="G18" s="25">
+        <v>8.42</v>
+      </c>
+      <c r="H18" s="34"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="18"/>
     </row>
     <row r="19" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="69" t="s">
-        <v>127</v>
-      </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="D19" s="26">
+      <c r="A19" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" s="33"/>
+      <c r="C19" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="D19" s="25">
         <f>0.34*3</f>
         <v>1.02</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E19" s="25">
         <v>19.62</v>
       </c>
-      <c r="F19" s="57">
-        <f t="shared" si="0"/>
-        <v>20.399999999999999</v>
-      </c>
-      <c r="G19" s="19"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="19"/>
+      <c r="F19" s="75">
+        <v>9</v>
+      </c>
+      <c r="G19" s="25">
+        <v>22.56</v>
+      </c>
+      <c r="H19" s="34"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="18"/>
     </row>
     <row r="20" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="69" t="s">
-        <v>125</v>
-      </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="D20" s="26">
+      <c r="A20" s="66" t="s">
+        <v>124</v>
+      </c>
+      <c r="B20" s="32"/>
+      <c r="C20" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="D20" s="25">
         <f>0.16*2</f>
         <v>0.32</v>
       </c>
-      <c r="E20" s="26">
+      <c r="E20" s="25">
         <v>5.2</v>
       </c>
-      <c r="F20" s="57">
-        <f t="shared" si="0"/>
-        <v>6.4</v>
-      </c>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
+      <c r="F20" s="75">
+        <v>6</v>
+      </c>
+      <c r="G20" s="25">
+        <v>5.98</v>
+      </c>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
     </row>
     <row r="21" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="69" t="s">
-        <v>128</v>
-      </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="D21" s="26">
+      <c r="A21" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="B21" s="33"/>
+      <c r="C21" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" s="25">
         <f>0.18*3</f>
         <v>0.54</v>
       </c>
-      <c r="E21" s="26">
+      <c r="E21" s="25">
         <v>8.2200000000000006</v>
       </c>
-      <c r="F21" s="57">
-        <f t="shared" si="0"/>
-        <v>10.8</v>
-      </c>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
+      <c r="F21" s="75">
+        <v>9</v>
+      </c>
+      <c r="G21" s="25">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="I21" s="16"/>
     </row>
     <row r="22" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="69" t="s">
-        <v>129</v>
-      </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="D22" s="26">
+      <c r="A22" s="66" t="s">
+        <v>128</v>
+      </c>
+      <c r="B22" s="20"/>
+      <c r="C22" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D22" s="25">
         <f>108/50</f>
         <v>2.16</v>
       </c>
-      <c r="E22" s="26">
+      <c r="E22" s="25">
         <v>43.2</v>
       </c>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57">
-        <f>108-E22</f>
-        <v>64.8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="18" x14ac:dyDescent="0.3">
-      <c r="C23" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="D23" s="27">
+      <c r="F22" s="73"/>
+      <c r="G22" s="39"/>
+    </row>
+    <row r="23" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="C23" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="26">
         <f>SUM(D16:D22)</f>
         <v>7.660000000000001</v>
       </c>
-      <c r="E23" s="27">
+      <c r="E23" s="26">
         <f>SUM(E16:E22)</f>
         <v>143.20000000000002</v>
       </c>
+      <c r="F23" s="73"/>
     </row>
     <row r="24" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="54" t="s">
-        <v>98</v>
-      </c>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="61" t="s">
-        <v>190</v>
-      </c>
-      <c r="E24" s="61" t="s">
-        <v>191</v>
-      </c>
+      <c r="A24" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="61"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="E24" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="F24" s="73"/>
     </row>
     <row r="25" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="67" t="s">
-        <v>121</v>
-      </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="22" t="s">
+      <c r="A25" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="D25" s="26">
+      <c r="B25" s="20"/>
+      <c r="C25" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" s="25">
         <v>1.2</v>
       </c>
-      <c r="E25" s="26">
+      <c r="E25" s="25">
         <v>24</v>
       </c>
-      <c r="F25" s="57"/>
+      <c r="F25" s="73">
+        <v>3</v>
+      </c>
+      <c r="G25" s="25">
+        <v>27.6</v>
+      </c>
     </row>
     <row r="26" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="69" t="s">
-        <v>188</v>
-      </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="22" t="s">
+      <c r="A26" s="66" t="s">
+        <v>181</v>
+      </c>
+      <c r="B26" s="20"/>
+      <c r="C26" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="D26" s="25">
+        <v>7.54</v>
+      </c>
+      <c r="E26" s="25">
+        <v>124.4</v>
+      </c>
+      <c r="F26" s="73"/>
+      <c r="G26" s="39"/>
+    </row>
+    <row r="27" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="64" t="s">
+        <v>171</v>
+      </c>
+      <c r="B27" s="20"/>
+      <c r="C27" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="D26" s="26">
-        <v>7.54</v>
-      </c>
-      <c r="E26" s="26">
-        <v>124.4</v>
-      </c>
-      <c r="F26" s="57">
-        <f>D26*20</f>
-        <v>150.80000000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="70" t="s">
-        <v>175</v>
-      </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="31" t="s">
-        <v>196</v>
-      </c>
-      <c r="D27" s="26">
+      <c r="D27" s="25">
         <f>(20.99*2)/20</f>
         <v>2.0989999999999998</v>
       </c>
-      <c r="E27" s="26">
+      <c r="E27" s="25">
         <f>20.99*2</f>
         <v>41.98</v>
       </c>
-      <c r="G27">
-        <v>7.16</v>
-      </c>
-      <c r="H27" s="16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.3">
-      <c r="C28" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="D28" s="27">
+      <c r="F27" s="73">
+        <v>5</v>
+      </c>
+      <c r="G27" s="25">
+        <f>E27+11.48</f>
+        <v>53.459999999999994</v>
+      </c>
+      <c r="H27" s="67"/>
+    </row>
+    <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="C28" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="26">
         <f>SUM(D25:D27)</f>
         <v>10.839</v>
       </c>
-      <c r="E28" s="27">
+      <c r="E28" s="26">
         <f>SUM(E25:E27)</f>
         <v>190.38</v>
       </c>
+      <c r="F28" s="73"/>
     </row>
     <row r="29" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="54" t="s">
-        <v>149</v>
-      </c>
-      <c r="B29" s="54"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="61" t="s">
-        <v>190</v>
-      </c>
-      <c r="E29" s="61" t="s">
-        <v>191</v>
-      </c>
+      <c r="A29" s="61" t="s">
+        <v>147</v>
+      </c>
+      <c r="B29" s="61"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="E29" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="F29" s="73"/>
     </row>
     <row r="30" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="71" t="s">
-        <v>154</v>
-      </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="D30" s="26">
+      <c r="A30" s="63" t="s">
+        <v>152</v>
+      </c>
+      <c r="B30" s="17"/>
+      <c r="C30" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="D30" s="25">
         <f>0.65*4</f>
         <v>2.6</v>
       </c>
-      <c r="E30" s="26">
+      <c r="E30" s="25">
         <f>D30*20</f>
         <v>52</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="76">
         <v>1.82</v>
       </c>
-      <c r="G30" s="57"/>
+      <c r="G30" s="39"/>
     </row>
     <row r="31" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="71" t="s">
+      <c r="A31" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="B31" s="17"/>
+      <c r="C31" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" s="25">
+        <v>1.55</v>
+      </c>
+      <c r="E31" s="25">
+        <f t="shared" ref="E31:E33" si="0">D31*20</f>
+        <v>31</v>
+      </c>
+      <c r="F31" s="76">
+        <v>4.55</v>
+      </c>
+      <c r="G31" s="39"/>
+    </row>
+    <row r="32" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="63" t="s">
+        <v>154</v>
+      </c>
+      <c r="B32" s="17"/>
+      <c r="C32" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="D32" s="25">
+        <v>3.3</v>
+      </c>
+      <c r="E32" s="25">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="F32" s="76">
+        <v>1.885</v>
+      </c>
+      <c r="G32" s="39"/>
+    </row>
+    <row r="33" spans="1:7" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="63" t="s">
         <v>155</v>
       </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="22" t="s">
+      <c r="B33" s="17"/>
+      <c r="C33" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="D31" s="26">
-        <v>1.55</v>
-      </c>
-      <c r="E31" s="26">
-        <f t="shared" ref="E31:E33" si="1">D31*20</f>
-        <v>31</v>
-      </c>
-      <c r="F31">
-        <v>4.55</v>
-      </c>
-      <c r="G31" s="57"/>
-    </row>
-    <row r="32" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="71" t="s">
-        <v>156</v>
-      </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="D32" s="26">
-        <v>3.3</v>
-      </c>
-      <c r="E32" s="26">
-        <f t="shared" si="1"/>
-        <v>66</v>
-      </c>
-      <c r="F32">
-        <v>1.885</v>
-      </c>
-      <c r="G32" s="57"/>
-    </row>
-    <row r="33" spans="1:7" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="71" t="s">
-        <v>157</v>
-      </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="D33" s="26">
+      <c r="D33" s="25">
         <v>1.1499999999999999</v>
       </c>
-      <c r="E33" s="26">
-        <f t="shared" si="1"/>
+      <c r="E33" s="25">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="76">
         <v>2.08</v>
       </c>
-      <c r="G33" s="57"/>
-    </row>
-    <row r="34" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="C34" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="D34" s="27">
+      <c r="G33" s="39"/>
+    </row>
+    <row r="34" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="C34" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" s="26">
         <f>SUM(D30:D33)</f>
         <v>8.6</v>
       </c>
-      <c r="E34" s="27">
+      <c r="E34" s="26">
         <f>SUM(E30:E33)</f>
         <v>172</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="76">
         <f>SUM(F30:F33)</f>
         <v>10.335000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C35" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27">
-        <f>O5</f>
-        <v>53.61</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C36" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="D36" s="29">
+    <row r="35" spans="1:7" ht="54.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="80"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="83" t="s">
+        <v>183</v>
+      </c>
+      <c r="E35" s="84" t="s">
+        <v>199</v>
+      </c>
+      <c r="F35" s="76"/>
+      <c r="G35" s="39"/>
+    </row>
+    <row r="36" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="81"/>
+      <c r="B36" s="82"/>
+      <c r="C36" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="D36" s="28">
         <f>SUM(D14,D23,D28,D34)</f>
-        <v>97.822999999999993</v>
-      </c>
-      <c r="E36" s="29">
-        <f>SUM(E14,E23,E28,E34,E35)</f>
-        <v>1973.6699999999998</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="38" spans="1:7" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C38" s="72" t="s">
-        <v>205</v>
-      </c>
-      <c r="D38" s="73">
-        <f>3000-E36</f>
-        <v>1026.3300000000002</v>
-      </c>
-      <c r="E38" s="57"/>
-    </row>
-    <row r="39" spans="1:7" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C39" s="72" t="s">
-        <v>197</v>
-      </c>
-      <c r="D39" s="73">
-        <f>E36/20</f>
-        <v>98.683499999999995</v>
-      </c>
+        <v>108.18299999999999</v>
+      </c>
+      <c r="E36" s="28">
+        <f>SUM(E14,E23,E28,E34)/20</f>
+        <v>105.845</v>
+      </c>
+      <c r="F36" s="73"/>
+    </row>
+    <row r="37" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F37" s="73"/>
+    </row>
+    <row r="38" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C38" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="D38" s="28">
+        <f>O4</f>
+        <v>653.3900000000001</v>
+      </c>
+      <c r="E38" s="39"/>
+      <c r="F38" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4332,17 +4304,16 @@
     <hyperlink ref="A20" r:id="rId20"/>
     <hyperlink ref="A12" r:id="rId21"/>
     <hyperlink ref="A13" r:id="rId22"/>
-    <hyperlink ref="H27" r:id="rId23" display="https://www.sparkfun.com/products/9065"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="87" orientation="landscape" r:id="rId24"/>
+  <pageSetup scale="87" orientation="landscape" r:id="rId23"/>
   <headerFooter>
     <oddHeader>&amp;LIntel Maker Nation Presents&amp;CA Friends and Family Event&amp;RApril 2016</oddHeader>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="25" max="3" man="1"/>
   </rowBreaks>
-  <drawing r:id="rId25"/>
+  <drawing r:id="rId24"/>
 </worksheet>
 </file>
 
@@ -4368,94 +4339,94 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" t="s">
         <v>101</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="E1" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="F1" t="s">
         <v>104</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>105</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1" t="s">
         <v>106</v>
-      </c>
-      <c r="H1" t="s">
-        <v>123</v>
-      </c>
-      <c r="I1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="55" t="s">
-        <v>113</v>
-      </c>
-      <c r="E2" s="55" t="s">
-        <v>113</v>
+        <v>110</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>112</v>
       </c>
       <c r="G2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D3" s="55" t="s">
-        <v>113</v>
-      </c>
-      <c r="E3" s="55" t="s">
-        <v>113</v>
+        <v>107</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>112</v>
       </c>
       <c r="F3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" t="s">
         <v>116</v>
       </c>
-      <c r="C4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D4" s="55">
+      <c r="D4" s="37">
         <v>2</v>
       </c>
-      <c r="E4" s="55">
+      <c r="E4" s="37">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I4">
         <v>7</v>
@@ -4463,236 +4434,236 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
+        <v>109</v>
+      </c>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
       <c r="H5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B7" t="s">
-        <v>159</v>
-      </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
+        <v>157</v>
+      </c>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B8" t="s">
-        <v>158</v>
-      </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
+        <v>156</v>
+      </c>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>124</v>
-      </c>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
+        <v>123</v>
+      </c>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
     </row>
     <row r="11" spans="1:9" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>162</v>
-      </c>
-      <c r="D11" s="56" t="s">
+      <c r="B11" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="F11" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="E11" s="56" t="s">
-        <v>140</v>
-      </c>
-      <c r="F11" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="G11" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="H11" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="I11" s="36" t="s">
-        <v>140</v>
+      <c r="G11" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="H11" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="I11" s="35" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>144</v>
-      </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
+        <v>143</v>
+      </c>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
       <c r="E12" t="s">
-        <v>133</v>
-      </c>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
+        <v>132</v>
+      </c>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D14" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="F14" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D17" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F17" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D20">
         <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
-      <c r="F21" s="37" t="s">
-        <v>182</v>
+      <c r="F21" s="36" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C22" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C24">
         <v>15</v>
@@ -4700,7 +4671,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C25">
         <v>3</v>

--- a/NMMakerFnFEvent_BOM.xlsx
+++ b/NMMakerFnFEvent_BOM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmmanzan\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmmanzan\Documents\Arduino\NMMakers_FnF_Event\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1115,54 +1115,6 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1221,6 +1173,54 @@
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2929,13 +2929,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="48"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71"/>
     </row>
     <row r="3" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
@@ -2944,13 +2944,13 @@
       <c r="B3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="75" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="55" t="s">
+      <c r="E3" s="78" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2961,9 +2961,9 @@
       <c r="B4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="53"/>
+      <c r="C4" s="76"/>
       <c r="D4" s="9"/>
-      <c r="E4" s="56"/>
+      <c r="E4" s="79"/>
     </row>
     <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
@@ -2972,18 +2972,18 @@
       <c r="B5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="54"/>
+      <c r="C5" s="77"/>
       <c r="D5" s="9"/>
-      <c r="E5" s="57"/>
+      <c r="E5" s="80"/>
     </row>
     <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="48"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="71"/>
     </row>
     <row r="7" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
@@ -2992,7 +2992,7 @@
       <c r="B7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="75" t="s">
         <v>55</v>
       </c>
       <c r="D7" s="6"/>
@@ -3005,7 +3005,7 @@
       <c r="B8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="53"/>
+      <c r="C8" s="76"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
@@ -3016,18 +3016,18 @@
       <c r="B9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="54"/>
+      <c r="C9" s="77"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="48"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="71"/>
     </row>
     <row r="11" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
@@ -3036,7 +3036,7 @@
       <c r="B11" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="78" t="s">
         <v>82</v>
       </c>
       <c r="D11" s="6" t="s">
@@ -3049,7 +3049,7 @@
         <v>34</v>
       </c>
       <c r="B12" s="6"/>
-      <c r="C12" s="56"/>
+      <c r="C12" s="79"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
     </row>
@@ -3058,7 +3058,7 @@
         <v>34</v>
       </c>
       <c r="B13" s="6"/>
-      <c r="C13" s="56"/>
+      <c r="C13" s="79"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
     </row>
@@ -3067,18 +3067,18 @@
         <v>34</v>
       </c>
       <c r="B14" s="6"/>
-      <c r="C14" s="57"/>
+      <c r="C14" s="80"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="48"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="71"/>
     </row>
     <row r="16" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
@@ -3116,13 +3116,13 @@
       <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="48"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="71"/>
     </row>
     <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
@@ -3232,13 +3232,13 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="58" t="s">
+      <c r="A28" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="58"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
+      <c r="B28" s="81"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="81"/>
     </row>
     <row r="29" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
@@ -3334,13 +3334,13 @@
       <c r="E35" s="6"/>
     </row>
     <row r="36" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="59" t="s">
+      <c r="A36" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="60"/>
-      <c r="C36" s="60"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="60"/>
+      <c r="B36" s="83"/>
+      <c r="C36" s="83"/>
+      <c r="D36" s="83"/>
+      <c r="E36" s="83"/>
     </row>
     <row r="37" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
@@ -3349,7 +3349,7 @@
       <c r="B37" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="55" t="s">
+      <c r="C37" s="78" t="s">
         <v>74</v>
       </c>
       <c r="D37" s="1"/>
@@ -3362,7 +3362,7 @@
       <c r="B38" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="56"/>
+      <c r="C38" s="79"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
@@ -3373,7 +3373,7 @@
       <c r="B39" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="56"/>
+      <c r="C39" s="79"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
@@ -3384,7 +3384,7 @@
       <c r="B40" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C40" s="57"/>
+      <c r="C40" s="80"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
@@ -3412,7 +3412,7 @@
       <c r="B42" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="55" t="s">
+      <c r="C42" s="78" t="s">
         <v>74</v>
       </c>
       <c r="D42" s="1"/>
@@ -3425,7 +3425,7 @@
       <c r="B43" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="56"/>
+      <c r="C43" s="79"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
@@ -3436,7 +3436,7 @@
       <c r="B44" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C44" s="56"/>
+      <c r="C44" s="79"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
@@ -3447,18 +3447,18 @@
       <c r="B45" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C45" s="57"/>
+      <c r="C45" s="80"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="49" t="s">
+      <c r="A46" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="B46" s="50"/>
-      <c r="C46" s="50"/>
-      <c r="D46" s="50"/>
-      <c r="E46" s="51"/>
+      <c r="B46" s="73"/>
+      <c r="C46" s="73"/>
+      <c r="D46" s="73"/>
+      <c r="E46" s="74"/>
     </row>
     <row r="47" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="11" t="s">
@@ -3515,36 +3515,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35:E38"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="71.400000000000006" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" style="65" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" style="49" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
     <col min="3" max="3" width="83.109375" style="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" style="27" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" style="72" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" style="56" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.109375" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" customWidth="1"/>
     <col min="10" max="10" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="84" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
       <c r="D1" s="40" t="s">
         <v>183</v>
       </c>
       <c r="E1" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="F1" s="71" t="s">
+      <c r="F1" s="55" t="s">
         <v>193</v>
       </c>
       <c r="H1" t="s">
@@ -3567,7 +3567,7 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="46" t="s">
         <v>86</v>
       </c>
       <c r="B2" s="19"/>
@@ -3580,12 +3580,12 @@
       <c r="E2" s="25">
         <v>399.2</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="57"/>
       <c r="H2" t="s">
         <v>166</v>
       </c>
       <c r="K2">
-        <v>293.12</v>
+        <v>301.86</v>
       </c>
       <c r="L2">
         <f>920.16+236.52</f>
@@ -3605,7 +3605,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="46" t="s">
         <v>121</v>
       </c>
       <c r="B3" s="19"/>
@@ -3619,7 +3619,7 @@
       <c r="E3" s="25">
         <v>48</v>
       </c>
-      <c r="F3" s="73"/>
+      <c r="F3" s="57"/>
       <c r="J3" s="35" t="s">
         <v>192</v>
       </c>
@@ -3628,14 +3628,14 @@
       </c>
       <c r="O3">
         <f>SUM(K2:O2)-K3</f>
-        <v>2281.81</v>
+        <v>2290.5499999999997</v>
       </c>
       <c r="P3" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="46" t="s">
         <v>88</v>
       </c>
       <c r="B4" s="19"/>
@@ -3648,17 +3648,17 @@
       <c r="E4" s="25">
         <v>47.2</v>
       </c>
-      <c r="F4" s="73"/>
+      <c r="F4" s="57"/>
       <c r="J4" t="s">
         <v>197</v>
       </c>
       <c r="O4">
         <f>3000-O3-K3</f>
-        <v>653.3900000000001</v>
+        <v>644.65000000000032</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="46" t="s">
         <v>90</v>
       </c>
       <c r="B5" s="19"/>
@@ -3671,7 +3671,7 @@
       <c r="E5" s="25">
         <v>63.2</v>
       </c>
-      <c r="F5" s="73">
+      <c r="F5" s="57">
         <v>3</v>
       </c>
       <c r="G5" s="25">
@@ -3679,23 +3679,23 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="70" t="s">
+      <c r="B6" s="53"/>
+      <c r="C6" s="54" t="s">
         <v>194</v>
       </c>
-      <c r="D6" s="78">
+      <c r="D6" s="62">
         <v>10.36</v>
       </c>
-      <c r="E6" s="77">
+      <c r="E6" s="61">
         <v>196.84</v>
       </c>
-      <c r="F6" s="74">
+      <c r="F6" s="58">
         <v>3</v>
       </c>
-      <c r="G6" s="77">
+      <c r="G6" s="61">
         <v>227.92</v>
       </c>
       <c r="H6" t="s">
@@ -3703,7 +3703,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="46" t="s">
         <v>93</v>
       </c>
       <c r="B7" s="19"/>
@@ -3716,10 +3716,10 @@
       <c r="E7" s="25">
         <v>7.2</v>
       </c>
-      <c r="F7" s="73"/>
+      <c r="F7" s="57"/>
     </row>
     <row r="8" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="46" t="s">
         <v>95</v>
       </c>
       <c r="B8" s="19"/>
@@ -3732,10 +3732,10 @@
       <c r="E8" s="25">
         <v>20</v>
       </c>
-      <c r="F8" s="73"/>
+      <c r="F8" s="57"/>
     </row>
     <row r="9" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="46" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="20"/>
@@ -3748,7 +3748,7 @@
       <c r="E9" s="25">
         <v>207.2</v>
       </c>
-      <c r="F9" s="73">
+      <c r="F9" s="57">
         <v>1</v>
       </c>
       <c r="G9" s="25">
@@ -3756,7 +3756,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="47" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="20"/>
@@ -3770,11 +3770,11 @@
         <f>26*20</f>
         <v>520</v>
       </c>
-      <c r="F10" s="73"/>
+      <c r="F10" s="57"/>
       <c r="K10" s="39"/>
     </row>
     <row r="11" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="48" t="s">
         <v>171</v>
       </c>
       <c r="B11" s="17"/>
@@ -3789,11 +3789,11 @@
         <f>7.89*4</f>
         <v>31.56</v>
       </c>
-      <c r="F11" s="73"/>
+      <c r="F11" s="57"/>
       <c r="K11" s="39"/>
     </row>
     <row r="12" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="48" t="s">
         <v>171</v>
       </c>
       <c r="B12" s="17"/>
@@ -3808,11 +3808,11 @@
         <f>7.99</f>
         <v>7.99</v>
       </c>
-      <c r="F12" s="73"/>
+      <c r="F12" s="57"/>
       <c r="K12" s="39"/>
     </row>
     <row r="13" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="64" t="s">
+      <c r="A13" s="48" t="s">
         <v>187</v>
       </c>
       <c r="B13" s="17"/>
@@ -3827,7 +3827,7 @@
         <f>8.99*7</f>
         <v>62.93</v>
       </c>
-      <c r="F13" s="73"/>
+      <c r="F13" s="57"/>
     </row>
     <row r="14" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="C14" s="22" t="s">
@@ -3841,24 +3841,24 @@
         <f>SUM(E2:E13)</f>
         <v>1611.3200000000002</v>
       </c>
-      <c r="F14" s="73"/>
+      <c r="F14" s="57"/>
     </row>
     <row r="15" spans="1:16" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="61" t="s">
+      <c r="A15" s="84" t="s">
         <v>98</v>
       </c>
-      <c r="B15" s="61"/>
-      <c r="C15" s="61"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="84"/>
       <c r="D15" s="40" t="s">
         <v>183</v>
       </c>
       <c r="E15" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="F15" s="73"/>
+      <c r="F15" s="57"/>
     </row>
     <row r="16" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="62" t="s">
+      <c r="A16" s="46" t="s">
         <v>118</v>
       </c>
       <c r="B16" s="19"/>
@@ -3871,7 +3871,7 @@
       <c r="E16" s="25">
         <v>47.2</v>
       </c>
-      <c r="F16" s="73">
+      <c r="F16" s="57">
         <v>3</v>
       </c>
       <c r="G16" s="25">
@@ -3879,7 +3879,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="66" t="s">
+      <c r="A17" s="50" t="s">
         <v>179</v>
       </c>
       <c r="B17" s="33"/>
@@ -3892,7 +3892,7 @@
       <c r="E17" s="25">
         <v>12.44</v>
       </c>
-      <c r="F17" s="75">
+      <c r="F17" s="59">
         <v>3</v>
       </c>
       <c r="G17" s="25">
@@ -3900,7 +3900,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="66" t="s">
+      <c r="A18" s="50" t="s">
         <v>125</v>
       </c>
       <c r="B18" s="32"/>
@@ -3914,7 +3914,7 @@
       <c r="E18" s="25">
         <v>7.32</v>
       </c>
-      <c r="F18" s="75">
+      <c r="F18" s="59">
         <v>6</v>
       </c>
       <c r="G18" s="25">
@@ -3925,7 +3925,7 @@
       <c r="J18" s="18"/>
     </row>
     <row r="19" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="66" t="s">
+      <c r="A19" s="50" t="s">
         <v>126</v>
       </c>
       <c r="B19" s="33"/>
@@ -3939,7 +3939,7 @@
       <c r="E19" s="25">
         <v>19.62</v>
       </c>
-      <c r="F19" s="75">
+      <c r="F19" s="59">
         <v>9</v>
       </c>
       <c r="G19" s="25">
@@ -3950,7 +3950,7 @@
       <c r="J19" s="18"/>
     </row>
     <row r="20" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="66" t="s">
+      <c r="A20" s="50" t="s">
         <v>124</v>
       </c>
       <c r="B20" s="32"/>
@@ -3964,7 +3964,7 @@
       <c r="E20" s="25">
         <v>5.2</v>
       </c>
-      <c r="F20" s="75">
+      <c r="F20" s="59">
         <v>6</v>
       </c>
       <c r="G20" s="25">
@@ -3974,7 +3974,7 @@
       <c r="I20" s="16"/>
     </row>
     <row r="21" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="66" t="s">
+      <c r="A21" s="50" t="s">
         <v>127</v>
       </c>
       <c r="B21" s="33"/>
@@ -3988,7 +3988,7 @@
       <c r="E21" s="25">
         <v>8.2200000000000006</v>
       </c>
-      <c r="F21" s="75">
+      <c r="F21" s="59">
         <v>9</v>
       </c>
       <c r="G21" s="25">
@@ -3997,7 +3997,7 @@
       <c r="I21" s="16"/>
     </row>
     <row r="22" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="66" t="s">
+      <c r="A22" s="50" t="s">
         <v>128</v>
       </c>
       <c r="B22" s="20"/>
@@ -4011,7 +4011,7 @@
       <c r="E22" s="25">
         <v>43.2</v>
       </c>
-      <c r="F22" s="73"/>
+      <c r="F22" s="57"/>
       <c r="G22" s="39"/>
     </row>
     <row r="23" spans="1:10" ht="18" x14ac:dyDescent="0.35">
@@ -4026,24 +4026,24 @@
         <f>SUM(E16:E22)</f>
         <v>143.20000000000002</v>
       </c>
-      <c r="F23" s="73"/>
+      <c r="F23" s="57"/>
     </row>
     <row r="24" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="61" t="s">
+      <c r="A24" s="84" t="s">
         <v>97</v>
       </c>
-      <c r="B24" s="61"/>
-      <c r="C24" s="61"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="84"/>
       <c r="D24" s="40" t="s">
         <v>183</v>
       </c>
       <c r="E24" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="F24" s="73"/>
+      <c r="F24" s="57"/>
     </row>
     <row r="25" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="62" t="s">
+      <c r="A25" s="46" t="s">
         <v>120</v>
       </c>
       <c r="B25" s="20"/>
@@ -4056,7 +4056,7 @@
       <c r="E25" s="25">
         <v>24</v>
       </c>
-      <c r="F25" s="73">
+      <c r="F25" s="57">
         <v>3</v>
       </c>
       <c r="G25" s="25">
@@ -4064,7 +4064,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="66" t="s">
+      <c r="A26" s="50" t="s">
         <v>181</v>
       </c>
       <c r="B26" s="20"/>
@@ -4077,11 +4077,11 @@
       <c r="E26" s="25">
         <v>124.4</v>
       </c>
-      <c r="F26" s="73"/>
+      <c r="F26" s="57"/>
       <c r="G26" s="39"/>
     </row>
     <row r="27" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="64" t="s">
+      <c r="A27" s="48" t="s">
         <v>171</v>
       </c>
       <c r="B27" s="20"/>
@@ -4096,14 +4096,14 @@
         <f>20.99*2</f>
         <v>41.98</v>
       </c>
-      <c r="F27" s="73">
+      <c r="F27" s="57">
         <v>5</v>
       </c>
       <c r="G27" s="25">
         <f>E27+11.48</f>
         <v>53.459999999999994</v>
       </c>
-      <c r="H27" s="67"/>
+      <c r="H27" s="51"/>
     </row>
     <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="C28" s="22" t="s">
@@ -4117,24 +4117,24 @@
         <f>SUM(E25:E27)</f>
         <v>190.38</v>
       </c>
-      <c r="F28" s="73"/>
+      <c r="F28" s="57"/>
     </row>
     <row r="29" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="61" t="s">
+      <c r="A29" s="84" t="s">
         <v>147</v>
       </c>
-      <c r="B29" s="61"/>
-      <c r="C29" s="61"/>
+      <c r="B29" s="84"/>
+      <c r="C29" s="84"/>
       <c r="D29" s="40" t="s">
         <v>183</v>
       </c>
       <c r="E29" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="F29" s="73"/>
+      <c r="F29" s="57"/>
     </row>
     <row r="30" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="63" t="s">
+      <c r="A30" s="47" t="s">
         <v>152</v>
       </c>
       <c r="B30" s="17"/>
@@ -4149,13 +4149,13 @@
         <f>D30*20</f>
         <v>52</v>
       </c>
-      <c r="F30" s="76">
+      <c r="F30" s="60">
         <v>1.82</v>
       </c>
       <c r="G30" s="39"/>
     </row>
     <row r="31" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="63" t="s">
+      <c r="A31" s="47" t="s">
         <v>153</v>
       </c>
       <c r="B31" s="17"/>
@@ -4169,13 +4169,13 @@
         <f t="shared" ref="E31:E33" si="0">D31*20</f>
         <v>31</v>
       </c>
-      <c r="F31" s="76">
+      <c r="F31" s="60">
         <v>4.55</v>
       </c>
       <c r="G31" s="39"/>
     </row>
     <row r="32" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="63" t="s">
+      <c r="A32" s="47" t="s">
         <v>154</v>
       </c>
       <c r="B32" s="17"/>
@@ -4189,13 +4189,13 @@
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="F32" s="76">
+      <c r="F32" s="60">
         <v>1.885</v>
       </c>
       <c r="G32" s="39"/>
     </row>
     <row r="33" spans="1:7" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="63" t="s">
+      <c r="A33" s="47" t="s">
         <v>155</v>
       </c>
       <c r="B33" s="17"/>
@@ -4209,7 +4209,7 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="F33" s="76">
+      <c r="F33" s="60">
         <v>2.08</v>
       </c>
       <c r="G33" s="39"/>
@@ -4226,27 +4226,27 @@
         <f>SUM(E30:E33)</f>
         <v>172</v>
       </c>
-      <c r="F34" s="76">
+      <c r="F34" s="60">
         <f>SUM(F30:F33)</f>
         <v>10.335000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="54.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="80"/>
+      <c r="A35" s="64"/>
       <c r="B35" s="18"/>
-      <c r="C35" s="79"/>
-      <c r="D35" s="83" t="s">
+      <c r="C35" s="63"/>
+      <c r="D35" s="67" t="s">
         <v>183</v>
       </c>
-      <c r="E35" s="84" t="s">
+      <c r="E35" s="68" t="s">
         <v>199</v>
       </c>
-      <c r="F35" s="76"/>
+      <c r="F35" s="60"/>
       <c r="G35" s="39"/>
     </row>
     <row r="36" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="81"/>
-      <c r="B36" s="82"/>
+      <c r="A36" s="65"/>
+      <c r="B36" s="66"/>
       <c r="C36" s="24" t="s">
         <v>200</v>
       </c>
@@ -4258,10 +4258,10 @@
         <f>SUM(E14,E23,E28,E34)/20</f>
         <v>105.845</v>
       </c>
-      <c r="F36" s="73"/>
+      <c r="F36" s="57"/>
     </row>
     <row r="37" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F37" s="73"/>
+      <c r="F37" s="57"/>
     </row>
     <row r="38" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C38" s="24" t="s">
@@ -4269,10 +4269,10 @@
       </c>
       <c r="D38" s="28">
         <f>O4</f>
-        <v>653.3900000000001</v>
+        <v>644.65000000000032</v>
       </c>
       <c r="E38" s="39"/>
-      <c r="F38" s="73"/>
+      <c r="F38" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/NMMakerFnFEvent_BOM.xlsx
+++ b/NMMakerFnFEvent_BOM.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13728" windowHeight="7380" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13725" windowHeight="7380" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AR List" sheetId="1" r:id="rId1"/>
@@ -1299,7 +1299,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>893445</xdr:colOff>
+      <xdr:colOff>883920</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>893445</xdr:rowOff>
     </xdr:to>
@@ -2317,7 +2317,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>910329</xdr:colOff>
+      <xdr:colOff>881754</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>861060</xdr:rowOff>
     </xdr:to>
@@ -2600,7 +2600,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>893115</xdr:colOff>
+      <xdr:colOff>883590</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>861061</xdr:rowOff>
     </xdr:to>
@@ -2902,16 +2902,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.88671875" customWidth="1"/>
-    <col min="2" max="2" width="45.5546875" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="38.109375" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="45.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="38.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="69" t="s">
         <v>26</v>
       </c>
@@ -2937,7 +2937,7 @@
       <c r="D2" s="70"/>
       <c r="E2" s="71"/>
     </row>
-    <row r="3" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
@@ -2965,7 +2965,7 @@
       <c r="D4" s="9"/>
       <c r="E4" s="79"/>
     </row>
-    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
@@ -2976,7 +2976,7 @@
       <c r="D5" s="9"/>
       <c r="E5" s="80"/>
     </row>
-    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="69" t="s">
         <v>27</v>
       </c>
@@ -2985,7 +2985,7 @@
       <c r="D6" s="70"/>
       <c r="E6" s="71"/>
     </row>
-    <row r="7" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>17</v>
       </c>
@@ -2998,7 +2998,7 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>24</v>
       </c>
@@ -3009,7 +3009,7 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>25</v>
       </c>
@@ -3020,7 +3020,7 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="69" t="s">
         <v>28</v>
       </c>
@@ -3029,7 +3029,7 @@
       <c r="D10" s="70"/>
       <c r="E10" s="71"/>
     </row>
-    <row r="11" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>34</v>
       </c>
@@ -3044,7 +3044,7 @@
       </c>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>34</v>
       </c>
@@ -3053,7 +3053,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>34</v>
       </c>
@@ -3062,7 +3062,7 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>34</v>
       </c>
@@ -3071,7 +3071,7 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="69" t="s">
         <v>30</v>
       </c>
@@ -3080,7 +3080,7 @@
       <c r="D15" s="70"/>
       <c r="E15" s="71"/>
     </row>
-    <row r="16" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>35</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>35</v>
       </c>
@@ -3106,7 +3106,7 @@
       <c r="D17" s="6"/>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>35</v>
       </c>
@@ -3115,7 +3115,7 @@
       <c r="D18" s="6"/>
       <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="69" t="s">
         <v>61</v>
       </c>
@@ -3124,7 +3124,7 @@
       <c r="D19" s="70"/>
       <c r="E19" s="71"/>
     </row>
-    <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>7</v>
       </c>
@@ -3137,7 +3137,7 @@
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>7</v>
       </c>
@@ -3146,7 +3146,7 @@
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" spans="1:10" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>11</v>
       </c>
@@ -3168,7 +3168,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:10" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>31</v>
       </c>
@@ -3177,7 +3177,7 @@
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
     </row>
-    <row r="24" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>36</v>
       </c>
@@ -3190,7 +3190,7 @@
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>36</v>
       </c>
@@ -3203,7 +3203,7 @@
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>36</v>
       </c>
@@ -3216,7 +3216,7 @@
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:10" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>36</v>
       </c>
@@ -3231,7 +3231,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="81" t="s">
         <v>33</v>
       </c>
@@ -3240,7 +3240,7 @@
       <c r="D28" s="81"/>
       <c r="E28" s="81"/>
     </row>
-    <row r="29" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>37</v>
       </c>
@@ -3253,7 +3253,7 @@
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
     </row>
-    <row r="30" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>37</v>
       </c>
@@ -3266,7 +3266,7 @@
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
     </row>
-    <row r="31" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>37</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>37</v>
       </c>
@@ -3294,7 +3294,7 @@
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>66</v>
       </c>
@@ -3307,7 +3307,7 @@
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
     </row>
-    <row r="34" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>37</v>
       </c>
@@ -3320,7 +3320,7 @@
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
     </row>
-    <row r="35" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>69</v>
       </c>
@@ -3333,7 +3333,7 @@
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
     </row>
-    <row r="36" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="82" t="s">
         <v>40</v>
       </c>
@@ -3342,7 +3342,7 @@
       <c r="D36" s="83"/>
       <c r="E36" s="83"/>
     </row>
-    <row r="37" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>41</v>
       </c>
@@ -3355,7 +3355,7 @@
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>41</v>
       </c>
@@ -3366,7 +3366,7 @@
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>44</v>
       </c>
@@ -3377,7 +3377,7 @@
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>45</v>
       </c>
@@ -3388,7 +3388,7 @@
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>11</v>
       </c>
@@ -3405,7 +3405,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>46</v>
       </c>
@@ -3418,7 +3418,7 @@
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>48</v>
       </c>
@@ -3429,7 +3429,7 @@
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>50</v>
       </c>
@@ -3440,7 +3440,7 @@
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
-    <row r="45" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>52</v>
       </c>
@@ -3451,7 +3451,7 @@
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
     </row>
-    <row r="46" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="72" t="s">
         <v>75</v>
       </c>
@@ -3460,7 +3460,7 @@
       <c r="D46" s="73"/>
       <c r="E46" s="74"/>
     </row>
-    <row r="47" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>76</v>
       </c>
@@ -3473,7 +3473,7 @@
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
     </row>
-    <row r="48" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>78</v>
       </c>
@@ -3516,23 +3516,24 @@
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="71.400000000000006" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="71.45" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" style="49" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="83.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" style="56" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" style="49" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="134.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="27" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="56" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="84" t="s">
         <v>99</v>
       </c>
@@ -3566,7 +3567,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="46" t="s">
         <v>86</v>
       </c>
@@ -3604,7 +3605,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="46" t="s">
         <v>121</v>
       </c>
@@ -3634,7 +3635,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="46" t="s">
         <v>88</v>
       </c>
@@ -3657,7 +3658,7 @@
         <v>644.65000000000032</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="46" t="s">
         <v>90</v>
       </c>
@@ -3678,7 +3679,7 @@
         <v>72.680000000000007</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="52" t="s">
         <v>91</v>
       </c>
@@ -3702,7 +3703,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="46" t="s">
         <v>93</v>
       </c>
@@ -3718,7 +3719,7 @@
       </c>
       <c r="F7" s="57"/>
     </row>
-    <row r="8" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="46" t="s">
         <v>95</v>
       </c>
@@ -3734,7 +3735,7 @@
       </c>
       <c r="F8" s="57"/>
     </row>
-    <row r="9" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="46" t="s">
         <v>8</v>
       </c>
@@ -3755,7 +3756,7 @@
         <v>217.56</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>10</v>
       </c>
@@ -3773,7 +3774,7 @@
       <c r="F10" s="57"/>
       <c r="K10" s="39"/>
     </row>
-    <row r="11" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="48" t="s">
         <v>171</v>
       </c>
@@ -3792,7 +3793,7 @@
       <c r="F11" s="57"/>
       <c r="K11" s="39"/>
     </row>
-    <row r="12" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="48" t="s">
         <v>171</v>
       </c>
@@ -3811,7 +3812,7 @@
       <c r="F12" s="57"/>
       <c r="K12" s="39"/>
     </row>
-    <row r="13" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="48" t="s">
         <v>187</v>
       </c>
@@ -3829,7 +3830,7 @@
       </c>
       <c r="F13" s="57"/>
     </row>
-    <row r="14" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C14" s="22" t="s">
         <v>96</v>
       </c>
@@ -3843,7 +3844,7 @@
       </c>
       <c r="F14" s="57"/>
     </row>
-    <row r="15" spans="1:16" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="84" t="s">
         <v>98</v>
       </c>
@@ -3857,7 +3858,7 @@
       </c>
       <c r="F15" s="57"/>
     </row>
-    <row r="16" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="46" t="s">
         <v>118</v>
       </c>
@@ -3878,7 +3879,7 @@
         <v>54.28</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="50" t="s">
         <v>179</v>
       </c>
@@ -3899,7 +3900,7 @@
         <v>14.31</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="50" t="s">
         <v>125</v>
       </c>
@@ -3924,7 +3925,7 @@
       <c r="I18" s="29"/>
       <c r="J18" s="18"/>
     </row>
-    <row r="19" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="50" t="s">
         <v>126</v>
       </c>
@@ -3949,7 +3950,7 @@
       <c r="I19" s="29"/>
       <c r="J19" s="18"/>
     </row>
-    <row r="20" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="50" t="s">
         <v>124</v>
       </c>
@@ -3973,7 +3974,7 @@
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
     </row>
-    <row r="21" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="50" t="s">
         <v>127</v>
       </c>
@@ -3996,7 +3997,7 @@
       </c>
       <c r="I21" s="16"/>
     </row>
-    <row r="22" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="50" t="s">
         <v>128</v>
       </c>
@@ -4014,7 +4015,7 @@
       <c r="F22" s="57"/>
       <c r="G22" s="39"/>
     </row>
-    <row r="23" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C23" s="22" t="s">
         <v>96</v>
       </c>
@@ -4028,7 +4029,7 @@
       </c>
       <c r="F23" s="57"/>
     </row>
-    <row r="24" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="84" t="s">
         <v>97</v>
       </c>
@@ -4042,7 +4043,7 @@
       </c>
       <c r="F24" s="57"/>
     </row>
-    <row r="25" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="46" t="s">
         <v>120</v>
       </c>
@@ -4063,7 +4064,7 @@
         <v>27.6</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="50" t="s">
         <v>181</v>
       </c>
@@ -4080,7 +4081,7 @@
       <c r="F26" s="57"/>
       <c r="G26" s="39"/>
     </row>
-    <row r="27" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="48" t="s">
         <v>171</v>
       </c>
@@ -4105,7 +4106,7 @@
       </c>
       <c r="H27" s="51"/>
     </row>
-    <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C28" s="22" t="s">
         <v>96</v>
       </c>
@@ -4119,7 +4120,7 @@
       </c>
       <c r="F28" s="57"/>
     </row>
-    <row r="29" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="84" t="s">
         <v>147</v>
       </c>
@@ -4133,7 +4134,7 @@
       </c>
       <c r="F29" s="57"/>
     </row>
-    <row r="30" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="47" t="s">
         <v>152</v>
       </c>
@@ -4154,7 +4155,7 @@
       </c>
       <c r="G30" s="39"/>
     </row>
-    <row r="31" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="47" t="s">
         <v>153</v>
       </c>
@@ -4174,7 +4175,7 @@
       </c>
       <c r="G31" s="39"/>
     </row>
-    <row r="32" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="47" t="s">
         <v>154</v>
       </c>
@@ -4194,7 +4195,7 @@
       </c>
       <c r="G32" s="39"/>
     </row>
-    <row r="33" spans="1:7" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="47" t="s">
         <v>155</v>
       </c>
@@ -4214,7 +4215,7 @@
       </c>
       <c r="G33" s="39"/>
     </row>
-    <row r="34" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C34" s="22" t="s">
         <v>96</v>
       </c>
@@ -4231,7 +4232,7 @@
         <v>10.335000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="54.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="64"/>
       <c r="B35" s="18"/>
       <c r="C35" s="63"/>
@@ -4244,7 +4245,7 @@
       <c r="F35" s="60"/>
       <c r="G35" s="39"/>
     </row>
-    <row r="36" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="65"/>
       <c r="B36" s="66"/>
       <c r="C36" s="24" t="s">
@@ -4260,10 +4261,10 @@
       </c>
       <c r="F36" s="57"/>
     </row>
-    <row r="37" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F37" s="57"/>
     </row>
-    <row r="38" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C38" s="24" t="s">
         <v>198</v>
       </c>
@@ -4306,13 +4307,17 @@
     <hyperlink ref="A13" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="87" orientation="landscape" r:id="rId23"/>
+  <pageSetup scale="57" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId23"/>
   <headerFooter>
     <oddHeader>&amp;LIntel Maker Nation Presents&amp;CA Friends and Family Event&amp;RApril 2016</oddHeader>
   </headerFooter>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="25" max="3" man="1"/>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="14" max="16383" man="1"/>
+    <brk id="23" max="16383" man="1"/>
   </rowBreaks>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="7" max="1048575" man="1"/>
+  </colBreaks>
   <drawing r:id="rId24"/>
 </worksheet>
 </file>
@@ -4325,19 +4330,19 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>100</v>
       </c>
@@ -4363,7 +4368,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>110</v>
       </c>
@@ -4383,7 +4388,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>107</v>
       </c>
@@ -4406,7 +4411,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>108</v>
       </c>
@@ -4432,7 +4437,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>109</v>
       </c>
@@ -4442,11 +4447,11 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D6" s="37"/>
       <c r="E6" s="37"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>108</v>
       </c>
@@ -4456,7 +4461,7 @@
       <c r="D7" s="37"/>
       <c r="E7" s="37"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>109</v>
       </c>
@@ -4466,18 +4471,18 @@
       <c r="D8" s="37"/>
       <c r="E8" s="37"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D9" s="37"/>
       <c r="E9" s="37"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>123</v>
       </c>
       <c r="D10" s="37"/>
       <c r="E10" s="37"/>
     </row>
-    <row r="11" spans="1:9" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="35" t="s">
         <v>131</v>
       </c>
@@ -4503,7 +4508,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>143</v>
       </c>
@@ -4518,7 +4523,7 @@
       <c r="H12" s="35"/>
       <c r="I12" s="35"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>144</v>
       </c>
@@ -4526,7 +4531,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>137</v>
       </c>
@@ -4543,7 +4548,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>135</v>
       </c>
@@ -4557,7 +4562,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>136</v>
       </c>
@@ -4571,7 +4576,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>107</v>
       </c>
@@ -4588,7 +4593,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>135</v>
       </c>
@@ -4602,7 +4607,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>136</v>
       </c>
@@ -4616,7 +4621,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>138</v>
       </c>
@@ -4633,7 +4638,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>136</v>
       </c>
@@ -4647,7 +4652,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>135</v>
       </c>
@@ -4661,7 +4666,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>136</v>
       </c>
@@ -4669,7 +4674,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>135</v>
       </c>

--- a/NMMakerFnFEvent_BOM.xlsx
+++ b/NMMakerFnFEvent_BOM.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13725" windowHeight="7380" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13728" windowHeight="7380" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="AR List" sheetId="1" r:id="rId1"/>
@@ -820,7 +820,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -998,15 +998,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="1" diagonalDown="1">
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal style="dotted">
-        <color auto="1"/>
-      </diagonal>
-    </border>
     <border>
       <left/>
       <right style="medium">
@@ -1100,10 +1091,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1167,7 +1154,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1221,6 +1208,10 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2902,16 +2893,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" customWidth="1"/>
-    <col min="2" max="2" width="45.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="38.140625" customWidth="1"/>
+    <col min="1" max="1" width="26.88671875" customWidth="1"/>
+    <col min="2" max="2" width="45.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="38.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
@@ -2928,115 +2919,115 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71"/>
-    </row>
-    <row r="3" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="69"/>
+    </row>
+    <row r="3" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="73" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="78" t="s">
+      <c r="E3" s="76" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="76"/>
+      <c r="C4" s="74"/>
       <c r="D4" s="9"/>
-      <c r="E4" s="79"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E4" s="77"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="77"/>
+      <c r="C5" s="75"/>
       <c r="D5" s="9"/>
-      <c r="E5" s="80"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="69" t="s">
+      <c r="E5" s="78"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="71"/>
-    </row>
-    <row r="7" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="69"/>
+    </row>
+    <row r="7" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="75" t="s">
+      <c r="C7" s="73" t="s">
         <v>55</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="76"/>
+      <c r="C8" s="74"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="77"/>
+      <c r="C9" s="75"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="69" t="s">
+    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="70"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="71"/>
-    </row>
-    <row r="11" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="69"/>
+    </row>
+    <row r="11" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="78" t="s">
+      <c r="C11" s="76" t="s">
         <v>82</v>
       </c>
       <c r="D11" s="6" t="s">
@@ -3044,43 +3035,43 @@
       </c>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="6"/>
-      <c r="C12" s="79"/>
+      <c r="C12" s="77"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B13" s="6"/>
-      <c r="C13" s="79"/>
+      <c r="C13" s="77"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B14" s="6"/>
-      <c r="C14" s="80"/>
+      <c r="C14" s="78"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="69" t="s">
+    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="71"/>
-    </row>
-    <row r="16" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="69"/>
+    </row>
+    <row r="16" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>35</v>
       </c>
@@ -3097,7 +3088,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>35</v>
       </c>
@@ -3106,7 +3097,7 @@
       <c r="D17" s="6"/>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>35</v>
       </c>
@@ -3115,16 +3106,16 @@
       <c r="D18" s="6"/>
       <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="69" t="s">
+    <row r="19" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="71"/>
-    </row>
-    <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="69"/>
+    </row>
+    <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>7</v>
       </c>
@@ -3137,7 +3128,7 @@
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>7</v>
       </c>
@@ -3146,7 +3137,7 @@
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" spans="1:10" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>11</v>
       </c>
@@ -3168,7 +3159,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:10" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>31</v>
       </c>
@@ -3177,7 +3168,7 @@
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
     </row>
-    <row r="24" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>36</v>
       </c>
@@ -3190,7 +3181,7 @@
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>36</v>
       </c>
@@ -3203,7 +3194,7 @@
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>36</v>
       </c>
@@ -3216,7 +3207,7 @@
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:10" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>36</v>
       </c>
@@ -3231,16 +3222,16 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="81" t="s">
+    <row r="28" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="81"/>
-      <c r="C28" s="81"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="81"/>
-    </row>
-    <row r="29" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="79"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="79"/>
+    </row>
+    <row r="29" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>37</v>
       </c>
@@ -3253,7 +3244,7 @@
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
     </row>
-    <row r="30" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>37</v>
       </c>
@@ -3266,7 +3257,7 @@
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
     </row>
-    <row r="31" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>37</v>
       </c>
@@ -3281,7 +3272,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>37</v>
       </c>
@@ -3294,7 +3285,7 @@
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
         <v>66</v>
       </c>
@@ -3307,7 +3298,7 @@
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
     </row>
-    <row r="34" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>37</v>
       </c>
@@ -3320,7 +3311,7 @@
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
     </row>
-    <row r="35" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>69</v>
       </c>
@@ -3333,62 +3324,62 @@
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
     </row>
-    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="82" t="s">
+    <row r="36" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="83"/>
-      <c r="C36" s="83"/>
-      <c r="D36" s="83"/>
-      <c r="E36" s="83"/>
-    </row>
-    <row r="37" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B36" s="81"/>
+      <c r="C36" s="81"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="81"/>
+    </row>
+    <row r="37" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>41</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="78" t="s">
+      <c r="C37" s="76" t="s">
         <v>74</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>41</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="79"/>
+      <c r="C38" s="77"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
         <v>44</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="79"/>
+      <c r="C39" s="77"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
         <v>45</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C40" s="80"/>
+      <c r="C40" s="78"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>11</v>
       </c>
@@ -3405,62 +3396,62 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
         <v>46</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="78" t="s">
+      <c r="C42" s="76" t="s">
         <v>74</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
         <v>48</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="79"/>
+      <c r="C43" s="77"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
         <v>50</v>
       </c>
       <c r="B44" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C44" s="79"/>
+      <c r="C44" s="77"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
-    <row r="45" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
         <v>52</v>
       </c>
       <c r="B45" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C45" s="80"/>
+      <c r="C45" s="78"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
     </row>
-    <row r="46" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="72" t="s">
+    <row r="46" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="B46" s="73"/>
-      <c r="C46" s="73"/>
-      <c r="D46" s="73"/>
-      <c r="E46" s="74"/>
-    </row>
-    <row r="47" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="71"/>
+      <c r="C46" s="71"/>
+      <c r="D46" s="71"/>
+      <c r="E46" s="72"/>
+    </row>
+    <row r="47" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="11" t="s">
         <v>76</v>
       </c>
@@ -3473,7 +3464,7 @@
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
     </row>
-    <row r="48" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
         <v>78</v>
       </c>
@@ -3515,60 +3506,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="71.45" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="71.400000000000006" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="49" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="134.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="27" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="56" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" style="47" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="134.44140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="27" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" style="54" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
+    <row r="1" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="82" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="40" t="s">
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="F1" s="53" t="s">
         <v>193</v>
       </c>
       <c r="H1" t="s">
         <v>167</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="L1" s="42" t="s">
+      <c r="L1" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="M1" s="45" t="s">
+      <c r="M1" s="43" t="s">
         <v>170</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="N1" s="42" t="s">
         <v>171</v>
       </c>
       <c r="O1" s="35" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="46" t="s">
+    <row r="2" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="44" t="s">
         <v>86</v>
       </c>
       <c r="B2" s="19"/>
@@ -3581,7 +3572,7 @@
       <c r="E2" s="25">
         <v>399.2</v>
       </c>
-      <c r="F2" s="57"/>
+      <c r="F2" s="55"/>
       <c r="H2" t="s">
         <v>166</v>
       </c>
@@ -3605,8 +3596,8 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="46" t="s">
+    <row r="3" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="44" t="s">
         <v>121</v>
       </c>
       <c r="B3" s="19"/>
@@ -3620,7 +3611,7 @@
       <c r="E3" s="25">
         <v>48</v>
       </c>
-      <c r="F3" s="57"/>
+      <c r="F3" s="55"/>
       <c r="J3" s="35" t="s">
         <v>192</v>
       </c>
@@ -3635,8 +3626,8 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="46" t="s">
+    <row r="4" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="44" t="s">
         <v>88</v>
       </c>
       <c r="B4" s="19"/>
@@ -3649,7 +3640,7 @@
       <c r="E4" s="25">
         <v>47.2</v>
       </c>
-      <c r="F4" s="57"/>
+      <c r="F4" s="55"/>
       <c r="J4" t="s">
         <v>197</v>
       </c>
@@ -3658,8 +3649,8 @@
         <v>644.65000000000032</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="46" t="s">
+    <row r="5" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="44" t="s">
         <v>90</v>
       </c>
       <c r="B5" s="19"/>
@@ -3672,39 +3663,39 @@
       <c r="E5" s="25">
         <v>63.2</v>
       </c>
-      <c r="F5" s="57">
+      <c r="F5" s="55">
         <v>3</v>
       </c>
       <c r="G5" s="25">
         <v>72.680000000000007</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="52" t="s">
+    <row r="6" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="54" t="s">
+      <c r="B6" s="51"/>
+      <c r="C6" s="52" t="s">
         <v>194</v>
       </c>
-      <c r="D6" s="62">
+      <c r="D6" s="60">
         <v>10.36</v>
       </c>
-      <c r="E6" s="61">
+      <c r="E6" s="59">
         <v>196.84</v>
       </c>
-      <c r="F6" s="58">
+      <c r="F6" s="56">
         <v>3</v>
       </c>
-      <c r="G6" s="61">
+      <c r="G6" s="59">
         <v>227.92</v>
       </c>
       <c r="H6" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="46" t="s">
+    <row r="7" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="44" t="s">
         <v>93</v>
       </c>
       <c r="B7" s="19"/>
@@ -3717,10 +3708,10 @@
       <c r="E7" s="25">
         <v>7.2</v>
       </c>
-      <c r="F7" s="57"/>
-    </row>
-    <row r="8" spans="1:16" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="46" t="s">
+      <c r="F7" s="55"/>
+    </row>
+    <row r="8" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="44" t="s">
         <v>95</v>
       </c>
       <c r="B8" s="19"/>
@@ -3733,10 +3724,10 @@
       <c r="E8" s="25">
         <v>20</v>
       </c>
-      <c r="F8" s="57"/>
-    </row>
-    <row r="9" spans="1:16" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="46" t="s">
+      <c r="F8" s="55"/>
+    </row>
+    <row r="9" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="44" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="20"/>
@@ -3749,15 +3740,15 @@
       <c r="E9" s="25">
         <v>207.2</v>
       </c>
-      <c r="F9" s="57">
+      <c r="F9" s="55">
         <v>1</v>
       </c>
       <c r="G9" s="25">
         <v>217.56</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="47" t="s">
+    <row r="10" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="45" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="20"/>
@@ -3771,11 +3762,11 @@
         <f>26*20</f>
         <v>520</v>
       </c>
-      <c r="F10" s="57"/>
-      <c r="K10" s="39"/>
-    </row>
-    <row r="11" spans="1:16" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="48" t="s">
+      <c r="F10" s="55"/>
+      <c r="K10" s="37"/>
+    </row>
+    <row r="11" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="46" t="s">
         <v>171</v>
       </c>
       <c r="B11" s="17"/>
@@ -3790,11 +3781,11 @@
         <f>7.89*4</f>
         <v>31.56</v>
       </c>
-      <c r="F11" s="57"/>
-      <c r="K11" s="39"/>
-    </row>
-    <row r="12" spans="1:16" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="48" t="s">
+      <c r="F11" s="55"/>
+      <c r="K11" s="37"/>
+    </row>
+    <row r="12" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="46" t="s">
         <v>171</v>
       </c>
       <c r="B12" s="17"/>
@@ -3809,11 +3800,11 @@
         <f>7.99</f>
         <v>7.99</v>
       </c>
-      <c r="F12" s="57"/>
-      <c r="K12" s="39"/>
-    </row>
-    <row r="13" spans="1:16" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="48" t="s">
+      <c r="F12" s="55"/>
+      <c r="K12" s="37"/>
+    </row>
+    <row r="13" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="46" t="s">
         <v>187</v>
       </c>
       <c r="B13" s="17"/>
@@ -3828,9 +3819,9 @@
         <f>8.99*7</f>
         <v>62.93</v>
       </c>
-      <c r="F13" s="57"/>
-    </row>
-    <row r="14" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F13" s="55"/>
+    </row>
+    <row r="14" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="C14" s="22" t="s">
         <v>96</v>
       </c>
@@ -3842,24 +3833,24 @@
         <f>SUM(E2:E13)</f>
         <v>1611.3200000000002</v>
       </c>
-      <c r="F14" s="57"/>
-    </row>
-    <row r="15" spans="1:16" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="84" t="s">
+      <c r="F14" s="55"/>
+    </row>
+    <row r="15" spans="1:16" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="82" t="s">
         <v>98</v>
       </c>
-      <c r="B15" s="84"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="40" t="s">
+      <c r="B15" s="82"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="E15" s="40" t="s">
+      <c r="E15" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="F15" s="57"/>
-    </row>
-    <row r="16" spans="1:16" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="46" t="s">
+      <c r="F15" s="55"/>
+    </row>
+    <row r="16" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="44" t="s">
         <v>118</v>
       </c>
       <c r="B16" s="19"/>
@@ -3872,15 +3863,15 @@
       <c r="E16" s="25">
         <v>47.2</v>
       </c>
-      <c r="F16" s="57">
+      <c r="F16" s="55">
         <v>3</v>
       </c>
       <c r="G16" s="25">
         <v>54.28</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="50" t="s">
+    <row r="17" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="48" t="s">
         <v>179</v>
       </c>
       <c r="B17" s="33"/>
@@ -3893,19 +3884,19 @@
       <c r="E17" s="25">
         <v>12.44</v>
       </c>
-      <c r="F17" s="59">
+      <c r="F17" s="57">
         <v>3</v>
       </c>
       <c r="G17" s="25">
         <v>14.31</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="50" t="s">
+    <row r="18" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="48" t="s">
         <v>125</v>
       </c>
       <c r="B18" s="32"/>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="39" t="s">
         <v>158</v>
       </c>
       <c r="D18" s="25">
@@ -3915,7 +3906,7 @@
       <c r="E18" s="25">
         <v>7.32</v>
       </c>
-      <c r="F18" s="59">
+      <c r="F18" s="57">
         <v>6</v>
       </c>
       <c r="G18" s="25">
@@ -3925,8 +3916,8 @@
       <c r="I18" s="29"/>
       <c r="J18" s="18"/>
     </row>
-    <row r="19" spans="1:10" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="50" t="s">
+    <row r="19" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="48" t="s">
         <v>126</v>
       </c>
       <c r="B19" s="33"/>
@@ -3940,7 +3931,7 @@
       <c r="E19" s="25">
         <v>19.62</v>
       </c>
-      <c r="F19" s="59">
+      <c r="F19" s="57">
         <v>9</v>
       </c>
       <c r="G19" s="25">
@@ -3950,8 +3941,8 @@
       <c r="I19" s="29"/>
       <c r="J19" s="18"/>
     </row>
-    <row r="20" spans="1:10" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="50" t="s">
+    <row r="20" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="48" t="s">
         <v>124</v>
       </c>
       <c r="B20" s="32"/>
@@ -3965,7 +3956,7 @@
       <c r="E20" s="25">
         <v>5.2</v>
       </c>
-      <c r="F20" s="59">
+      <c r="F20" s="57">
         <v>6</v>
       </c>
       <c r="G20" s="25">
@@ -3974,8 +3965,8 @@
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
     </row>
-    <row r="21" spans="1:10" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="50" t="s">
+    <row r="21" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="48" t="s">
         <v>127</v>
       </c>
       <c r="B21" s="33"/>
@@ -3989,7 +3980,7 @@
       <c r="E21" s="25">
         <v>8.2200000000000006</v>
       </c>
-      <c r="F21" s="59">
+      <c r="F21" s="57">
         <v>9</v>
       </c>
       <c r="G21" s="25">
@@ -3997,8 +3988,8 @@
       </c>
       <c r="I21" s="16"/>
     </row>
-    <row r="22" spans="1:10" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="50" t="s">
+    <row r="22" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="48" t="s">
         <v>128</v>
       </c>
       <c r="B22" s="20"/>
@@ -4012,10 +4003,10 @@
       <c r="E22" s="25">
         <v>43.2</v>
       </c>
-      <c r="F22" s="57"/>
-      <c r="G22" s="39"/>
-    </row>
-    <row r="23" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F22" s="55"/>
+      <c r="G22" s="37"/>
+    </row>
+    <row r="23" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="C23" s="22" t="s">
         <v>96</v>
       </c>
@@ -4027,24 +4018,24 @@
         <f>SUM(E16:E22)</f>
         <v>143.20000000000002</v>
       </c>
-      <c r="F23" s="57"/>
-    </row>
-    <row r="24" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="84" t="s">
+      <c r="F23" s="55"/>
+    </row>
+    <row r="24" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="B24" s="84"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="40" t="s">
+      <c r="B24" s="82"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="E24" s="40" t="s">
+      <c r="E24" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="F24" s="57"/>
-    </row>
-    <row r="25" spans="1:10" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="46" t="s">
+      <c r="F24" s="55"/>
+    </row>
+    <row r="25" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="44" t="s">
         <v>120</v>
       </c>
       <c r="B25" s="20"/>
@@ -4057,15 +4048,15 @@
       <c r="E25" s="25">
         <v>24</v>
       </c>
-      <c r="F25" s="57">
+      <c r="F25" s="55">
         <v>3</v>
       </c>
       <c r="G25" s="25">
         <v>27.6</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="50" t="s">
+    <row r="26" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="48" t="s">
         <v>181</v>
       </c>
       <c r="B26" s="20"/>
@@ -4078,11 +4069,11 @@
       <c r="E26" s="25">
         <v>124.4</v>
       </c>
-      <c r="F26" s="57"/>
-      <c r="G26" s="39"/>
-    </row>
-    <row r="27" spans="1:10" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="48" t="s">
+      <c r="F26" s="55"/>
+      <c r="G26" s="37"/>
+    </row>
+    <row r="27" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="46" t="s">
         <v>171</v>
       </c>
       <c r="B27" s="20"/>
@@ -4097,16 +4088,16 @@
         <f>20.99*2</f>
         <v>41.98</v>
       </c>
-      <c r="F27" s="57">
+      <c r="F27" s="55">
         <v>5</v>
       </c>
       <c r="G27" s="25">
         <f>E27+11.48</f>
         <v>53.459999999999994</v>
       </c>
-      <c r="H27" s="51"/>
-    </row>
-    <row r="28" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H27" s="49"/>
+    </row>
+    <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="C28" s="22" t="s">
         <v>96</v>
       </c>
@@ -4118,24 +4109,24 @@
         <f>SUM(E25:E27)</f>
         <v>190.38</v>
       </c>
-      <c r="F28" s="57"/>
-    </row>
-    <row r="29" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="84" t="s">
+      <c r="F28" s="55"/>
+    </row>
+    <row r="29" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="82" t="s">
         <v>147</v>
       </c>
-      <c r="B29" s="84"/>
-      <c r="C29" s="84"/>
-      <c r="D29" s="40" t="s">
+      <c r="B29" s="82"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="E29" s="40" t="s">
+      <c r="E29" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="F29" s="57"/>
-    </row>
-    <row r="30" spans="1:10" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="47" t="s">
+      <c r="F29" s="55"/>
+    </row>
+    <row r="30" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="45" t="s">
         <v>152</v>
       </c>
       <c r="B30" s="17"/>
@@ -4150,13 +4141,13 @@
         <f>D30*20</f>
         <v>52</v>
       </c>
-      <c r="F30" s="60">
+      <c r="F30" s="58">
         <v>1.82</v>
       </c>
-      <c r="G30" s="39"/>
-    </row>
-    <row r="31" spans="1:10" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="47" t="s">
+      <c r="G30" s="37"/>
+    </row>
+    <row r="31" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="45" t="s">
         <v>153</v>
       </c>
       <c r="B31" s="17"/>
@@ -4170,13 +4161,13 @@
         <f t="shared" ref="E31:E33" si="0">D31*20</f>
         <v>31</v>
       </c>
-      <c r="F31" s="60">
+      <c r="F31" s="58">
         <v>4.55</v>
       </c>
-      <c r="G31" s="39"/>
-    </row>
-    <row r="32" spans="1:10" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="47" t="s">
+      <c r="G31" s="37"/>
+    </row>
+    <row r="32" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="45" t="s">
         <v>154</v>
       </c>
       <c r="B32" s="17"/>
@@ -4190,13 +4181,13 @@
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="F32" s="60">
+      <c r="F32" s="58">
         <v>1.885</v>
       </c>
-      <c r="G32" s="39"/>
-    </row>
-    <row r="33" spans="1:7" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="47" t="s">
+      <c r="G32" s="37"/>
+    </row>
+    <row r="33" spans="1:7" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="45" t="s">
         <v>155</v>
       </c>
       <c r="B33" s="17"/>
@@ -4210,12 +4201,12 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="F33" s="60">
+      <c r="F33" s="58">
         <v>2.08</v>
       </c>
-      <c r="G33" s="39"/>
-    </row>
-    <row r="34" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G33" s="37"/>
+    </row>
+    <row r="34" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="C34" s="22" t="s">
         <v>96</v>
       </c>
@@ -4227,27 +4218,27 @@
         <f>SUM(E30:E33)</f>
         <v>172</v>
       </c>
-      <c r="F34" s="60">
+      <c r="F34" s="58">
         <f>SUM(F30:F33)</f>
         <v>10.335000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="64"/>
+    <row r="35" spans="1:7" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="62"/>
       <c r="B35" s="18"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="67" t="s">
+      <c r="C35" s="61"/>
+      <c r="D35" s="65" t="s">
         <v>183</v>
       </c>
-      <c r="E35" s="68" t="s">
+      <c r="E35" s="66" t="s">
         <v>199</v>
       </c>
-      <c r="F35" s="60"/>
-      <c r="G35" s="39"/>
-    </row>
-    <row r="36" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="65"/>
-      <c r="B36" s="66"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="37"/>
+    </row>
+    <row r="36" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="63"/>
+      <c r="B36" s="64"/>
       <c r="C36" s="24" t="s">
         <v>200</v>
       </c>
@@ -4259,12 +4250,12 @@
         <f>SUM(E14,E23,E28,E34)/20</f>
         <v>105.845</v>
       </c>
-      <c r="F36" s="57"/>
-    </row>
-    <row r="37" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F37" s="57"/>
-    </row>
-    <row r="38" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F36" s="55"/>
+    </row>
+    <row r="37" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F37" s="55"/>
+    </row>
+    <row r="38" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C38" s="24" t="s">
         <v>198</v>
       </c>
@@ -4272,8 +4263,8 @@
         <f>O4</f>
         <v>644.65000000000032</v>
       </c>
-      <c r="E38" s="39"/>
-      <c r="F38" s="57"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4326,33 +4317,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>100</v>
       </c>
       <c r="C1" t="s">
         <v>101</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="83" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="83" t="s">
         <v>103</v>
       </c>
       <c r="F1" t="s">
@@ -4368,14 +4359,14 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>110</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="83" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="83" t="s">
         <v>112</v>
       </c>
       <c r="G2" t="s">
@@ -4388,14 +4379,14 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="83" t="s">
         <v>112</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="83" t="s">
         <v>112</v>
       </c>
       <c r="F3" t="s">
@@ -4411,7 +4402,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>108</v>
       </c>
@@ -4421,10 +4412,10 @@
       <c r="C4" t="s">
         <v>116</v>
       </c>
-      <c r="D4" s="37">
+      <c r="D4" s="83">
         <v>2</v>
       </c>
-      <c r="E4" s="37">
+      <c r="E4" s="83">
         <v>8</v>
       </c>
       <c r="F4" t="s">
@@ -4437,62 +4428,62 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>109</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
       <c r="H5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>108</v>
       </c>
       <c r="B7" t="s">
         <v>157</v>
       </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>109</v>
       </c>
       <c r="B8" t="s">
         <v>156</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-    </row>
-    <row r="11" spans="1:9" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+    </row>
+    <row r="11" spans="1:9" ht="70.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="35" t="s">
         <v>131</v>
       </c>
       <c r="C11" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="84" t="s">
         <v>139</v>
       </c>
-      <c r="E11" s="38" t="s">
+      <c r="E11" s="84" t="s">
         <v>139</v>
       </c>
       <c r="F11" s="35" t="s">
@@ -4508,7 +4499,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>143</v>
       </c>
@@ -4523,7 +4514,7 @@
       <c r="H12" s="35"/>
       <c r="I12" s="35"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>144</v>
       </c>
@@ -4531,7 +4522,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>137</v>
       </c>
@@ -4548,7 +4539,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>135</v>
       </c>
@@ -4562,7 +4553,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>136</v>
       </c>
@@ -4576,7 +4567,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>107</v>
       </c>
@@ -4593,7 +4584,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>135</v>
       </c>
@@ -4607,7 +4598,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>136</v>
       </c>
@@ -4621,7 +4612,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>138</v>
       </c>
@@ -4638,7 +4629,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>136</v>
       </c>
@@ -4652,7 +4643,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>135</v>
       </c>
@@ -4666,7 +4657,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>136</v>
       </c>
@@ -4674,7 +4665,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>135</v>
       </c>
